--- a/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42D3B2F9-08F3-7B4F-ABA7-10470D56DD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67791C38-7333-AB41-8BB5-7A660090B390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
@@ -49,12 +49,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="100">
   <si>
     <t>Legend</t>
-  </si>
-  <si>
-    <t>Device groups</t>
   </si>
   <si>
     <t>Review enrolled vs unenrolled for BYOD/Corporate</t>
@@ -343,6 +340,18 @@
   <si>
     <t>Migrate print servers to cloud</t>
   </si>
+  <si>
+    <t>Migrate SSO for employee federated apps</t>
+  </si>
+  <si>
+    <t>Migrate SSO for employee WAM apps</t>
+  </si>
+  <si>
+    <t>Decommission WAM servers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Migrate SSO for External Identities federated apps </t>
+  </si>
 </sst>
 </file>
 
@@ -435,12 +444,6 @@
       <name val="Segoe UI Semibold"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Segoe UI Semibold"/>
@@ -477,6 +480,12 @@
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -647,7 +656,7 @@
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -708,10 +717,7 @@
     <xf numFmtId="0" fontId="13" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -727,31 +733,31 @@
     <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -761,7 +767,165 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="WorkItem" xfId="1" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="39">
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
@@ -916,6 +1080,17 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
@@ -977,17 +1152,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1452,8 +1616,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>469900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>488461</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>390769</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1469,77 +1633,11 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="279400" y="1770185"/>
-          <a:ext cx="20273247" cy="9785419"/>
+          <a:ext cx="20398852" cy="12674320"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
             <a:gd name="adj" fmla="val 6831"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:prstDash val="sysDot"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-GB" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>25399</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Rounded Rectangle 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5CA1AF6-00E4-9C4B-89CB-9B1E9ED5F4FB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="279400" y="9936703"/>
-          <a:ext cx="20270072" cy="402212"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 2281"/>
           </a:avLst>
         </a:prstGeom>
         <a:noFill/>
@@ -1745,63 +1843,18 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Graphic 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E996351-8C50-DF41-B68E-3A688B3B2E29}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2540000" y="5880100"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>21633</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>7680</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>23169</xdr:rowOff>
+      <xdr:rowOff>51081</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>232649</xdr:colOff>
+      <xdr:colOff>414080</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>27911</xdr:rowOff>
+      <xdr:rowOff>55823</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1816,8 +1869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000">
-          <a:off x="3544000" y="3367176"/>
-          <a:ext cx="3410017" cy="406400"/>
+          <a:off x="3934772" y="3185747"/>
+          <a:ext cx="2991335" cy="406400"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -1881,102 +1934,11 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Rounded Rectangle 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A9EDCB-5487-D04B-B401-9B5DD3FB00F4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="16200000">
-          <a:off x="1727200" y="9220200"/>
-          <a:ext cx="1600200" cy="406400"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 50000"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="D6D6D6"/>
-        </a:solidFill>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent4"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent4"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Advanced reqs</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
@@ -1994,10 +1956,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2039,10 +2001,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2084,10 +2046,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2098,96 +2060,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5676900" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Graphic 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD6948DB-6676-AD4E-93C7-07F68F98407A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Graphic 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{936594C0-5CB2-4945-86FD-A870E2B0902B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11785600" y="7499350"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2315,8 +2187,8 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>362857</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
@@ -2337,8 +2209,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="279400" y="10810875"/>
-          <a:ext cx="20269200" cy="6819900"/>
+          <a:off x="279400" y="14416593"/>
+          <a:ext cx="20395677" cy="2900345"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2379,18 +2251,18 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="469900" cy="469900"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Graphic 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC044AB9-990A-A040-B9A5-791DEBFF5CE5}"/>
+        <xdr:cNvPr id="44" name="Graphic 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BE335-8A41-3844-9F37-3FFCF44875B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2412,8 +2284,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="863600" y="11036300"/>
-          <a:ext cx="469900" cy="469900"/>
+          <a:off x="2895600" y="5880100"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2424,18 +2296,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>241300</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>292100</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="469900" cy="469900"/>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="342900" cy="342900"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Graphic 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E93D5FDF-5E38-F948-B8F8-1B9E9420A577}"/>
+        <xdr:cNvPr id="46" name="Graphic 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596FA845-D7A7-2546-B582-FAEEB3DA3909}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2457,8 +2329,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1397000" y="11036300"/>
-          <a:ext cx="469900" cy="469900"/>
+          <a:off x="2895600" y="4318000"/>
+          <a:ext cx="342900" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2471,16 +2343,16 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="368300" cy="368300"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Graphic 43">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F83BE335-8A41-3844-9F37-3FFCF44875B7}"/>
+        <xdr:cNvPr id="48" name="Graphic 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F803C7-CEF3-8544-94C2-35EFBE35151D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2489,100 +2361,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="5880100"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Graphic 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596FA845-D7A7-2546-B582-FAEEB3DA3909}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="4318000"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Graphic 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80F803C7-CEF3-8544-94C2-35EFBE35151D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2823,10 +2605,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2868,10 +2650,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2913,10 +2695,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3049,10 +2831,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3094,10 +2876,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3139,10 +2921,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3184,10 +2966,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3229,10 +3011,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3329,13 +3111,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3382,13 +3164,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3537,10 +3319,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId20"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3576,7 +3358,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="Rounded Rectangle 68">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53C3C2E0-A312-604E-8A4E-85F408693A5B}"/>
@@ -3812,10 +3594,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3857,10 +3639,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3902,10 +3684,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4055,10 +3837,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4092,6 +3874,231 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33425101-708E-324F-901C-925C763B128D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7791450" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="85" name="Graphic 84">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FD8216-B2A4-3D44-B1F0-72D72C51612A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9902825" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="86" name="Graphic 85">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A4BA46-8E6D-8C4B-B24E-D01E65FF3E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11998325" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="87" name="Graphic 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A5698D-3326-2E48-8E8A-BDBA55FA3A5B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13998575" y="7499350"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>242710</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>341489</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1549400" cy="1555750"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="88" name="Graphic 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FFB5CB-F60A-AA4B-8B33-D14436E76A0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="567266" y="21169489"/>
+          <a:ext cx="1549400" cy="1555750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="90" name="Graphic 89">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69E4818-BA3F-F24D-8CF6-BE5EE5DCE7B7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4104,231 +4111,6 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7791450" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Graphic 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7FD8216-B2A4-3D44-B1F0-72D72C51612A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9902825" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Graphic 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31A4BA46-8E6D-8C4B-B24E-D01E65FF3E27}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11998325" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Graphic 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8A5698D-3326-2E48-8E8A-BDBA55FA3A5B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13998575" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>242710</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>341489</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1549400" cy="1555750"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Graphic 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41FFB5CB-F60A-AA4B-8B33-D14436E76A0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="567266" y="21169489"/>
-          <a:ext cx="1549400" cy="1555750"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Graphic 89">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69E4818-BA3F-F24D-8CF6-BE5EE5DCE7B7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4375,13 +4157,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4428,7 +4210,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5340210" y="18476965"/>
-          <a:ext cx="2431093" cy="509288"/>
+          <a:ext cx="2556698" cy="509288"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -4577,7 +4359,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5353870" y="20013476"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -4721,10 +4503,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4766,10 +4548,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4811,10 +4593,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4856,10 +4638,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4901,10 +4683,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4946,10 +4728,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4991,10 +4773,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5041,7 +4823,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5338502" y="23171877"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5190,7 +4972,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5373507" y="21523947"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5339,7 +5121,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5388875" y="24734427"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -5500,10 +5282,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5545,10 +5327,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5590,10 +5372,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5640,7 +5422,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5388875" y="26353328"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6028,10 +5810,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6073,10 +5855,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6118,10 +5900,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6271,10 +6053,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6308,6 +6090,186 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A600545F-E044-1B43-8AE2-C9CD67453652}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="18604794"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="153" name="Graphic 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E49C47-F3D2-4841-A18A-3C87F473BAFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12042422" y="20227572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="154" name="Graphic 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A1501-9559-994D-BAA0-5314919B880B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="20227572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="155" name="Graphic 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4458DFBE-B09C-274B-8B4C-F37D51EF48A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="20227572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="157" name="Graphic 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33361-8F57-C64D-B385-57F63A1B2E47}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6320,186 +6282,6 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="18604794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Graphic 152">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43E49C47-F3D2-4841-A18A-3C87F473BAFC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Graphic 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D3A1501-9559-994D-BAA0-5314919B880B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="Graphic 154">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4458DFBE-B09C-274B-8B4C-F37D51EF48A3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="Graphic 156">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4D33361-8F57-C64D-B385-57F63A1B2E47}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6546,7 +6328,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5340210" y="28943998"/>
-          <a:ext cx="2431093" cy="509288"/>
+          <a:ext cx="2556698" cy="509288"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6695,7 +6477,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5353870" y="30480509"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -6839,10 +6621,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6884,10 +6666,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6929,10 +6711,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6974,10 +6756,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7019,10 +6801,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7064,10 +6846,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7109,10 +6891,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7159,7 +6941,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5338502" y="33638910"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7308,7 +7090,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5373507" y="31990980"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7457,7 +7239,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5388875" y="35201460"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7618,10 +7400,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7663,10 +7445,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7708,10 +7490,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7758,7 +7540,7 @@
       <xdr:grpSpPr>
         <a:xfrm>
           <a:off x="5388875" y="36820361"/>
-          <a:ext cx="2431093" cy="508467"/>
+          <a:ext cx="2556698" cy="508467"/>
           <a:chOff x="5321161" y="23616253"/>
           <a:chExt cx="2431246" cy="506129"/>
         </a:xfrm>
@@ -7902,10 +7684,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8101,10 +7883,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8146,10 +7928,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8282,10 +8064,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8319,6 +8101,186 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCDE0392-CA5E-A140-8223-2EB7640808C5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="29103461"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="247" name="Graphic 246">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C98B96C-F522-874B-AC82-209CB13CC4AA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12042422" y="30726239"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="248" name="Graphic 247">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7179D021-E982-644B-8415-3547FFABDD57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="30726239"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="249" name="Graphic 248">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82E4D86-87D9-CE4E-ACE3-203B4DA12A96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="30726239"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="250" name="Graphic 249">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC1010A-12B0-2B41-9571-EC98733D9D81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8340,8 +8302,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9939867" y="29103461"/>
-          <a:ext cx="304800" cy="304800"/>
+          <a:off x="2913944" y="32317267"/>
+          <a:ext cx="368300" cy="368300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -8354,16 +8316,286 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="247" name="Graphic 246">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C98B96C-F522-874B-AC82-209CB13CC4AA}"/>
+        <xdr:cNvPr id="257" name="Graphic 256">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4668D51C-7560-8E43-987F-B53ACD5F9FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12042422" y="32349017"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="258" name="Graphic 257">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2EEEA2-B876-9F4D-9C17-74BFF653C5E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="32349017"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="259" name="Graphic 258">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E035409-E362-664F-9829-EE488B232CDB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="32349017"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="260" name="Graphic 259">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980EA7B9-C290-8D4D-BD44-A2685C69B2AF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="33971794"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="261" name="Graphic 260">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D90CAF-37B4-1447-B5CE-524685A0E90E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9939867" y="33971794"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="262" name="Graphic 261">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D162846-C2AE-3B47-BA8D-24FDF0BB9C65}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7823200" y="35594572"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="279" name="Graphic 278">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CA4DA6-C979-D747-8129-76224FE97B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8376,456 +8608,6 @@
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
               <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="248" name="Graphic 247">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7179D021-E982-644B-8415-3547FFABDD57}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="249" name="Graphic 248">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D82E4D86-87D9-CE4E-ACE3-203B4DA12A96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="30726239"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="250" name="Graphic 249">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AC1010A-12B0-2B41-9571-EC98733D9D81}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="32317267"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="257" name="Graphic 256">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4668D51C-7560-8E43-987F-B53ACD5F9FF3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="258" name="Graphic 257">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F2EEEA2-B876-9F4D-9C17-74BFF653C5E3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="259" name="Graphic 258">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E035409-E362-664F-9829-EE488B232CDB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="32349017"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="260" name="Graphic 259">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{980EA7B9-C290-8D4D-BD44-A2685C69B2AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="33971794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="261" name="Graphic 260">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{81D90CAF-37B4-1447-B5CE-524685A0E90E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="33971794"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>92</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="262" name="Graphic 261">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D162846-C2AE-3B47-BA8D-24FDF0BB9C65}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="35594572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="279" name="Graphic 278">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97CA4DA6-C979-D747-8129-76224FE97B90}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8967,10 +8749,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9004,6 +8786,141 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{507DB5B2-8496-1945-B2F0-A4931C87B74D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913944" y="44438711"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="287" name="Graphic 286">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D8FD4-E0A7-1A4F-91F1-357612075293}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913944" y="46061489"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="368300" cy="368300"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="288" name="Graphic 287">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD33A5ED-AC2A-3F4E-904B-79DE46073370}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2913944" y="47684267"/>
+          <a:ext cx="368300" cy="368300"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="289" name="Graphic 288">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469D3B23-4306-CA4C-9AFE-CEB70DA96BA6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9025,8 +8942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913944" y="44438711"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="7823200" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9037,18 +8954,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="287" name="Graphic 286">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{184D8FD4-E0A7-1A4F-91F1-357612075293}"/>
+        <xdr:cNvPr id="290" name="Graphic 289">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9222CB74-FFC0-1646-B52B-ACC5BC99D7E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9070,8 +8987,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913944" y="46061489"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="7823200" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9082,18 +8999,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>98</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="288" name="Graphic 287">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD33A5ED-AC2A-3F4E-904B-79DE46073370}"/>
+        <xdr:cNvPr id="291" name="Graphic 290">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB2C0BB-FC56-774C-B7A7-C09ACE5BB75E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9115,8 +9032,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913944" y="47684267"/>
-          <a:ext cx="368300" cy="368300"/>
+          <a:off x="7823200" y="39602128"/>
+          <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -9129,16 +9046,16 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="289" name="Graphic 288">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{469D3B23-4306-CA4C-9AFE-CEB70DA96BA6}"/>
+        <xdr:cNvPr id="292" name="Graphic 291">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0237CE2-E53D-C747-B4C3-46E97D1E5B7E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9147,10 +9064,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9174,16 +9091,16 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="290" name="Graphic 289">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9222CB74-FFC0-1646-B52B-ACC5BC99D7E1}"/>
+        <xdr:cNvPr id="293" name="Graphic 292">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF210A14-FEAB-EC49-ADAB-8026C5CD27C4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9192,10 +9109,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9219,16 +9136,16 @@
     <xdr:from>
       <xdr:col>17</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="291" name="Graphic 290">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5AB2C0BB-FC56-774C-B7A7-C09ACE5BB75E}"/>
+        <xdr:cNvPr id="294" name="Graphic 293">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E32443-8130-E14D-92AE-FE9D9E359BF8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9237,10 +9154,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9264,16 +9181,16 @@
     <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="292" name="Graphic 291">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0237CE2-E53D-C747-B4C3-46E97D1E5B7E}"/>
+        <xdr:cNvPr id="295" name="Graphic 294">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C4067-856F-134E-901C-9389B3469BCB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9282,10 +9199,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9307,18 +9224,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>80</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="293" name="Graphic 292">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF210A14-FEAB-EC49-ADAB-8026C5CD27C4}"/>
+        <xdr:cNvPr id="302" name="Graphic 301">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26885862-36C2-3746-BF61-34204EC04C72}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9327,10 +9244,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9340,7 +9257,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
+          <a:off x="12042422" y="39602128"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9352,18 +9269,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="294" name="Graphic 293">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72E32443-8130-E14D-92AE-FE9D9E359BF8}"/>
+        <xdr:cNvPr id="303" name="Graphic 302">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8039A4D-C4D9-F34F-A514-12DA5ACA4CFA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9372,10 +9289,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9385,7 +9302,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
+          <a:off x="12042422" y="39602128"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9397,18 +9314,18 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>92</xdr:row>
+      <xdr:row>86</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="295" name="Graphic 294">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807C4067-856F-134E-901C-9389B3469BCB}"/>
+        <xdr:cNvPr id="304" name="Graphic 303">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8F5DC4-1184-C64F-98BD-7406FB265310}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9417,10 +9334,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9430,7 +9347,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7823200" y="39602128"/>
+          <a:off x="12042422" y="39602128"/>
           <a:ext cx="304800" cy="304800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9444,16 +9361,16 @@
     <xdr:from>
       <xdr:col>23</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>80</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>260350</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="304800" cy="304800"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="302" name="Graphic 301">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26885862-36C2-3746-BF61-34204EC04C72}"/>
+        <xdr:cNvPr id="305" name="Graphic 304">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE7F443-932D-3542-A0C1-DB37A0E70B40}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9462,145 +9379,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>83</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="303" name="Graphic 302">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8039A4D-C4D9-F34F-A514-12DA5ACA4CFA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>86</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="304" name="Graphic 303">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E8F5DC4-1184-C64F-98BD-7406FB265310}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12042422" y="39602128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>89</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="305" name="Graphic 304">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EE7F443-932D-3542-A0C1-DB37A0E70B40}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9733,10 +9515,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9778,10 +9560,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9823,10 +9605,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9868,10 +9650,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9913,10 +9695,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9958,10 +9740,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10157,10 +9939,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10202,10 +9984,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId14"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10355,10 +10137,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10400,10 +10182,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10445,10 +10227,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10490,10 +10272,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10535,10 +10317,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10580,10 +10362,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10625,10 +10407,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10670,10 +10452,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10864,10 +10646,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10910,10 +10692,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10955,10 +10737,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11000,10 +10782,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11045,10 +10827,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11095,13 +10877,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId18"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId16"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11398,10 +11180,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11973,6 +11755,419 @@
         <a:xfrm>
           <a:off x="9950660" y="5470768"/>
           <a:ext cx="307032" cy="409376"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>6564</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>167472</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>412964</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>181428</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Rounded Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E0609B5-4F55-8048-B256-0175F1FB5BA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4612895" y="5609492"/>
+          <a:ext cx="1632857" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Infrastructure</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>5446</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>236136</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>397890</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111649</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6EDD91FA-A415-C34A-B2DA-BC9888BA4353}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4667043" y="7227835"/>
+          <a:ext cx="1494414" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Authentication</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>260350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="304800" cy="304800"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Graphic 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C8955F4-4783-484F-94F4-74F15BE4D72B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5812134" y="8703757"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>533400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Graphic 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0603AAFC-BA71-3C4C-A5C5-4F2F3E1F190A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5812134" y="8703757"/>
+          <a:ext cx="304800" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>74109</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>207107</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>480509</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>82619</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rounded Rectangle 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828EA72E-02C1-834A-A223-896F51DDA5C6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1818893" y="8817707"/>
+          <a:ext cx="1494414" cy="406400"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="D6D6D6"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="2">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1400" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Segoe UI Semilight" panose="020B0402040204020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Provisioning</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>41868</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>181429</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="390769" cy="390769"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Graphic 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4938715-89EB-9549-AE3E-564A140F15E2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId43"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2874945" y="7005934"/>
+          <a:ext cx="390769" cy="390769"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12307,8 +12502,8 @@
   <dimension ref="A1:AK152"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R14" sqref="R14"/>
+      <pane ySplit="6" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12321,7 +12516,7 @@
     <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
     <col min="8" max="9" width="2.33203125" style="1" customWidth="1"/>
     <col min="10" max="10" width="0.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
     <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
     <col min="13" max="13" width="2.33203125" style="1" customWidth="1"/>
     <col min="14" max="14" width="25.83203125" style="1" customWidth="1"/>
@@ -12344,33 +12539,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26"/>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
+      <c r="A1" s="25"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="25"/>
+      <c r="O1" s="25"/>
+      <c r="P1" s="25"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="25"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
+      <c r="W1" s="25"/>
+      <c r="X1" s="25"/>
+      <c r="Y1" s="25"/>
+      <c r="Z1" s="25"/>
+      <c r="AA1" s="25"/>
       <c r="AD1" s="15"/>
       <c r="AE1" s="15"/>
       <c r="AF1" s="15"/>
@@ -12381,182 +12576,182 @@
       <c r="AK1" s="15"/>
     </row>
     <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="G2" s="30"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="27"/>
-      <c r="N2" s="31" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="G2" s="29"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="26"/>
+      <c r="P2" s="26"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="26"/>
+      <c r="S2" s="26"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-      <c r="W2" s="27"/>
-      <c r="X2" s="32" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y2" s="27"/>
-      <c r="Z2" s="27"/>
-      <c r="AA2" s="26"/>
+      <c r="Y2" s="26"/>
+      <c r="Z2" s="26"/>
+      <c r="AA2" s="25"/>
       <c r="AC2" s="14" t="s">
         <v>0</v>
       </c>
       <c r="AD2" s="16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="AE2" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF2" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="AG2" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="AH2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AI2" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="AJ2" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="AK2" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="AF2" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="AG2" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="AI2" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="AJ2" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="AK2" s="23" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="26"/>
-      <c r="B3" s="26"/>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="25"/>
+      <c r="O3" s="25"/>
+      <c r="P3" s="25"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="T3" s="25"/>
+      <c r="U3" s="25"/>
+      <c r="V3" s="25"/>
+      <c r="W3" s="25"/>
+      <c r="X3" s="25"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="25"/>
+      <c r="AA3" s="25"/>
     </row>
     <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="35"/>
-      <c r="K4" s="35"/>
-      <c r="L4" s="35"/>
-      <c r="M4" s="35"/>
-      <c r="N4" s="35"/>
-      <c r="O4" s="35"/>
-      <c r="P4" s="35"/>
-      <c r="Q4" s="36"/>
-      <c r="R4" s="36"/>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
-      <c r="Z4" s="35"/>
-      <c r="AA4" s="26"/>
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="32"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
+      <c r="V4" s="32"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+      <c r="Y4" s="39"/>
+      <c r="Z4" s="39"/>
+      <c r="AA4" s="25"/>
     </row>
     <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="26"/>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="34"/>
-      <c r="K5" s="34"/>
-      <c r="L5" s="34"/>
-      <c r="M5" s="34"/>
-      <c r="N5" s="34"/>
-      <c r="O5" s="34"/>
-      <c r="P5" s="34"/>
-      <c r="Q5" s="34"/>
-      <c r="R5" s="34"/>
-      <c r="S5" s="34"/>
-      <c r="T5" s="34"/>
-      <c r="U5" s="34"/>
-      <c r="V5" s="26"/>
-      <c r="W5" s="34"/>
-      <c r="X5" s="34"/>
-      <c r="Y5" s="34"/>
-      <c r="Z5" s="34"/>
-      <c r="AA5" s="26"/>
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="32"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
+      <c r="R5" s="32"/>
+      <c r="S5" s="32"/>
+      <c r="T5" s="32"/>
+      <c r="U5" s="32"/>
+      <c r="V5" s="25"/>
+      <c r="W5" s="32"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="32"/>
+      <c r="Z5" s="32"/>
+      <c r="AA5" s="25"/>
     </row>
     <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="26"/>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="37"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="37"/>
-      <c r="N6" s="37"/>
-      <c r="O6" s="37"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="37"/>
-      <c r="R6" s="37"/>
-      <c r="S6" s="37"/>
-      <c r="T6" s="37"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="37"/>
-      <c r="W6" s="37"/>
-      <c r="X6" s="37"/>
-      <c r="Y6" s="37"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="37"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="34"/>
+      <c r="G6" s="34"/>
+      <c r="H6" s="34"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="34"/>
+      <c r="L6" s="34"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34"/>
+      <c r="O6" s="34"/>
+      <c r="P6" s="34"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="34"/>
+      <c r="S6" s="34"/>
+      <c r="T6" s="34"/>
+      <c r="U6" s="34"/>
+      <c r="V6" s="34"/>
+      <c r="W6" s="34"/>
+      <c r="X6" s="34"/>
+      <c r="Y6" s="34"/>
+      <c r="Z6" s="34"/>
+      <c r="AA6" s="34"/>
     </row>
     <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
@@ -12612,21 +12807,21 @@
       <c r="D10" s="4"/>
       <c r="E10" s="2"/>
       <c r="G10" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J10" s="2"/>
-      <c r="L10" s="40" t="s">
+      <c r="L10" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="N10" s="40" t="s">
+      <c r="P10" s="36" t="s">
         <v>88</v>
       </c>
-      <c r="P10" s="40" t="s">
-        <v>89</v>
-      </c>
       <c r="Q10" s="11"/>
-      <c r="R10" s="41" t="s">
-        <v>91</v>
+      <c r="R10" s="37" t="s">
+        <v>90</v>
       </c>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
@@ -12642,22 +12837,22 @@
       <c r="C11" s="4"/>
       <c r="D11" s="4"/>
       <c r="E11" s="2"/>
-      <c r="G11" s="25" t="s">
-        <v>78</v>
+      <c r="G11" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J11" s="2"/>
-      <c r="L11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N11" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P11" s="25" t="s">
-        <v>78</v>
+      <c r="L11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P11" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="Q11" s="6"/>
-      <c r="R11" s="25" t="s">
-        <v>78</v>
+      <c r="R11" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="S11" s="6"/>
       <c r="T11" s="6"/>
@@ -12683,17 +12878,17 @@
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
       <c r="G13" s="7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N13" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="P13" s="41" t="s">
-        <v>90</v>
+        <v>85</v>
+      </c>
+      <c r="N13" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P13" s="37" t="s">
+        <v>89</v>
       </c>
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
@@ -12708,18 +12903,18 @@
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="25" t="s">
-        <v>78</v>
+      <c r="G14" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J14" s="2"/>
-      <c r="L14" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N14" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P14" s="25" t="s">
-        <v>78</v>
+      <c r="L14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P14" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="Q14" s="6"/>
       <c r="R14"/>
@@ -12744,23 +12939,23 @@
       <c r="D16" s="4"/>
       <c r="E16" s="2"/>
       <c r="G16" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J16" s="2"/>
-      <c r="L16" s="40" t="s">
+      <c r="L16" s="36" t="s">
+        <v>91</v>
+      </c>
+      <c r="N16" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="N16" s="40" t="s">
+      <c r="P16" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="P16" s="40" t="s">
+      <c r="R16" s="36" t="s">
         <v>94</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="T16" s="36" t="s">
         <v>95</v>
-      </c>
-      <c r="T16" s="40" t="s">
-        <v>96</v>
       </c>
       <c r="V16" s="2"/>
     </row>
@@ -12770,24 +12965,24 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="2"/>
-      <c r="G17" s="25" t="s">
-        <v>78</v>
+      <c r="G17" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J17" s="2"/>
-      <c r="L17" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N17" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P17" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R17" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="T17" s="25" t="s">
-        <v>78</v>
+      <c r="L17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="T17" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V17" s="2"/>
     </row>
@@ -12807,23 +13002,23 @@
       <c r="D19" s="4"/>
       <c r="E19" s="2"/>
       <c r="G19" s="5" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="J19" s="2"/>
-      <c r="L19" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="N19" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="P19" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="R19" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="T19" s="5" t="s">
-        <v>12</v>
+      <c r="L19" s="37" t="s">
+        <v>96</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="P19" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="R19" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="T19" s="37" t="s">
+        <v>99</v>
       </c>
       <c r="V19" s="2"/>
     </row>
@@ -12833,24 +13028,24 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="2"/>
-      <c r="G20" s="25" t="s">
-        <v>78</v>
+      <c r="G20" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J20" s="2"/>
-      <c r="L20" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="N20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R20" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="T20" s="25" t="s">
-        <v>78</v>
+      <c r="L20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="T20" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="V20" s="2"/>
     </row>
@@ -12870,12 +13065,9 @@
       <c r="D22" s="4"/>
       <c r="E22" s="2"/>
       <c r="G22" s="5" t="s">
-        <v>7</v>
+        <v>84</v>
       </c>
       <c r="J22" s="2"/>
-      <c r="L22" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="V22" s="2"/>
     </row>
     <row r="23" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12884,13 +13076,10 @@
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="2"/>
-      <c r="G23" s="25" t="s">
-        <v>78</v>
+      <c r="G23" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J23" s="2"/>
-      <c r="L23" s="25" t="s">
-        <v>78</v>
-      </c>
       <c r="V23" s="2"/>
     </row>
     <row r="24" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -12927,17 +13116,17 @@
       <c r="D27" s="4"/>
       <c r="E27" s="2"/>
       <c r="G27" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J27" s="2"/>
       <c r="L27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="N27" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N27" s="5" t="s">
+      <c r="P27" s="5" t="s">
         <v>5</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>6</v>
       </c>
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
@@ -12952,18 +13141,18 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="2"/>
-      <c r="G28" s="25" t="s">
-        <v>78</v>
+      <c r="G28" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J28" s="2"/>
-      <c r="L28" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N28" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P28" s="25" t="s">
-        <v>78</v>
+      <c r="L28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P28" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="Q28" s="6"/>
       <c r="R28" s="6"/>
@@ -12988,7 +13177,7 @@
       <c r="D30" s="4"/>
       <c r="E30" s="2"/>
       <c r="G30" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J30" s="2"/>
       <c r="V30" s="2"/>
@@ -12999,8 +13188,8 @@
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
       <c r="E31" s="2"/>
-      <c r="G31" s="25" t="s">
-        <v>78</v>
+      <c r="G31" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J31" s="2"/>
       <c r="V31" s="2"/>
@@ -13022,16 +13211,16 @@
       <c r="E33" s="2"/>
       <c r="J33" s="2"/>
       <c r="N33" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="P33" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="P33" s="7" t="s">
+      <c r="R33" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="R33" s="5" t="s">
+      <c r="T33" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="T33" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="V33" s="2"/>
     </row>
@@ -13042,17 +13231,17 @@
       <c r="D34" s="4"/>
       <c r="E34" s="2"/>
       <c r="J34" s="2"/>
-      <c r="N34" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P34" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R34" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="T34" s="25" t="s">
-        <v>78</v>
+      <c r="N34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R34" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="T34" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V34" s="2"/>
     </row>
@@ -13072,11 +13261,11 @@
       <c r="D36" s="4"/>
       <c r="E36" s="2"/>
       <c r="G36" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J36" s="2"/>
       <c r="L36" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="V36" s="2"/>
     </row>
@@ -13086,12 +13275,12 @@
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
       <c r="E37" s="2"/>
-      <c r="G37" s="25" t="s">
-        <v>78</v>
+      <c r="G37" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J37" s="2"/>
-      <c r="L37" s="25" t="s">
-        <v>78</v>
+      <c r="L37" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V37" s="2"/>
     </row>
@@ -13129,14 +13318,14 @@
       <c r="D41" s="4"/>
       <c r="E41" s="2"/>
       <c r="G41" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2"/>
       <c r="N41" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="U41" s="12"/>
       <c r="V41" s="2"/>
@@ -13147,15 +13336,15 @@
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
       <c r="E42" s="2"/>
-      <c r="G42" s="25" t="s">
-        <v>78</v>
+      <c r="G42" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J42" s="2"/>
-      <c r="N42" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P42" s="25" t="s">
-        <v>78</v>
+      <c r="N42" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P42" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="U42" s="6"/>
       <c r="V42" s="2"/>
@@ -13176,17 +13365,17 @@
       <c r="D44" s="4"/>
       <c r="E44" s="2"/>
       <c r="G44" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J44" s="2"/>
       <c r="N44" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P44" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P44" s="5" t="s">
+      <c r="R44" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="R44" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="V44" s="2"/>
     </row>
@@ -13196,18 +13385,18 @@
       <c r="C45" s="4"/>
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
-      <c r="G45" s="25" t="s">
-        <v>78</v>
+      <c r="G45" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J45" s="2"/>
-      <c r="N45" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P45" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R45" s="25" t="s">
-        <v>78</v>
+      <c r="N45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P45" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R45" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V45" s="2"/>
     </row>
@@ -13227,17 +13416,17 @@
       <c r="D47" s="4"/>
       <c r="E47" s="2"/>
       <c r="G47" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J47" s="2"/>
       <c r="N47" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P47" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P47" s="5" t="s">
+      <c r="R47" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="R47" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="V47" s="2"/>
     </row>
@@ -13247,18 +13436,18 @@
       <c r="C48" s="4"/>
       <c r="D48" s="4"/>
       <c r="E48" s="2"/>
-      <c r="G48" s="25" t="s">
-        <v>78</v>
+      <c r="G48" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J48" s="2"/>
-      <c r="N48" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P48" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R48" s="25" t="s">
-        <v>78</v>
+      <c r="N48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P48" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R48" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V48" s="2"/>
     </row>
@@ -13283,10 +13472,10 @@
       <c r="G50"/>
       <c r="J50" s="2"/>
       <c r="N50" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="P50" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="R50"/>
       <c r="V50" s="2"/>
@@ -13299,11 +13488,11 @@
       <c r="E51" s="2"/>
       <c r="G51"/>
       <c r="J51" s="2"/>
-      <c r="N51" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P51" s="25" t="s">
-        <v>78</v>
+      <c r="N51" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P51" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="R51"/>
       <c r="V51" s="2"/>
@@ -13325,10 +13514,10 @@
       <c r="E53" s="2"/>
       <c r="J53" s="2"/>
       <c r="N53" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="P53" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="R53"/>
       <c r="V53" s="2"/>
@@ -13340,11 +13529,11 @@
       <c r="D54" s="4"/>
       <c r="E54" s="2"/>
       <c r="J54" s="2"/>
-      <c r="N54" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P54" s="25" t="s">
-        <v>78</v>
+      <c r="N54" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P54" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="R54"/>
       <c r="V54" s="2"/>
@@ -13366,13 +13555,13 @@
       <c r="E56" s="2"/>
       <c r="J56" s="2"/>
       <c r="N56" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P56" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R56" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="R56" s="5" t="s">
-        <v>20</v>
       </c>
       <c r="V56" s="2"/>
     </row>
@@ -13383,14 +13572,14 @@
       <c r="D57" s="4"/>
       <c r="E57" s="2"/>
       <c r="J57" s="2"/>
-      <c r="N57" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P57" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R57" s="25" t="s">
-        <v>78</v>
+      <c r="N57" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P57" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R57" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V57" s="2"/>
     </row>
@@ -13428,14 +13617,14 @@
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="G61" s="7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2"/>
       <c r="N61" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="P61" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="P61" s="5" t="s">
-        <v>15</v>
       </c>
       <c r="U61" s="12"/>
       <c r="V61" s="2"/>
@@ -13446,15 +13635,15 @@
       <c r="C62" s="4"/>
       <c r="D62" s="4"/>
       <c r="E62" s="2"/>
-      <c r="G62" s="25" t="s">
-        <v>78</v>
+      <c r="G62" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J62" s="2"/>
-      <c r="N62" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P62" s="25" t="s">
-        <v>78</v>
+      <c r="N62" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P62" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="U62" s="6"/>
       <c r="V62" s="2"/>
@@ -13475,17 +13664,17 @@
       <c r="D64" s="4"/>
       <c r="E64" s="2"/>
       <c r="G64" s="13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J64" s="2"/>
       <c r="N64" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="P64" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="P64" s="5" t="s">
+      <c r="R64" s="5" t="s">
         <v>17</v>
-      </c>
-      <c r="R64" s="5" t="s">
-        <v>18</v>
       </c>
       <c r="V64" s="2"/>
     </row>
@@ -13495,18 +13684,18 @@
       <c r="C65" s="4"/>
       <c r="D65" s="4"/>
       <c r="E65" s="2"/>
-      <c r="G65" s="25" t="s">
-        <v>78</v>
+      <c r="G65" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J65" s="2"/>
-      <c r="N65" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P65" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R65" s="25" t="s">
-        <v>78</v>
+      <c r="N65" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P65" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R65" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V65" s="2"/>
     </row>
@@ -13526,17 +13715,17 @@
       <c r="D67" s="4"/>
       <c r="E67" s="2"/>
       <c r="G67" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J67" s="2"/>
       <c r="N67" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="P67" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P67" s="5" t="s">
+      <c r="R67" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="R67" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="V67" s="2"/>
     </row>
@@ -13546,18 +13735,18 @@
       <c r="C68" s="4"/>
       <c r="D68" s="4"/>
       <c r="E68" s="2"/>
-      <c r="G68" s="25" t="s">
-        <v>78</v>
+      <c r="G68" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J68" s="2"/>
-      <c r="N68" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P68" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R68" s="25" t="s">
-        <v>78</v>
+      <c r="N68" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P68" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R68" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V68" s="2"/>
     </row>
@@ -13580,14 +13769,14 @@
       <c r="E70" s="2"/>
       <c r="F70"/>
       <c r="G70" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J70" s="2"/>
       <c r="N70" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="P70" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="P70" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="R70"/>
       <c r="V70" s="2"/>
@@ -13598,15 +13787,15 @@
       <c r="C71" s="4"/>
       <c r="D71" s="4"/>
       <c r="E71" s="2"/>
-      <c r="G71" s="25" t="s">
-        <v>78</v>
+      <c r="G71" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J71" s="2"/>
-      <c r="N71" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P71" s="25" t="s">
-        <v>78</v>
+      <c r="N71" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P71" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="R71"/>
       <c r="V71" s="2"/>
@@ -13628,10 +13817,10 @@
       <c r="E73" s="2"/>
       <c r="J73" s="2"/>
       <c r="N73" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="P73" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="P73" s="5" t="s">
-        <v>12</v>
       </c>
       <c r="R73"/>
       <c r="V73" s="2"/>
@@ -13643,11 +13832,11 @@
       <c r="D74" s="4"/>
       <c r="E74" s="2"/>
       <c r="J74" s="2"/>
-      <c r="N74" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P74" s="25" t="s">
-        <v>78</v>
+      <c r="N74" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P74" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="R74"/>
       <c r="V74" s="2"/>
@@ -13669,13 +13858,13 @@
       <c r="E76" s="2"/>
       <c r="J76" s="2"/>
       <c r="N76" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="P76" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="R76" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="V76" s="2"/>
     </row>
@@ -13686,14 +13875,14 @@
       <c r="D77" s="4"/>
       <c r="E77" s="2"/>
       <c r="J77" s="2"/>
-      <c r="N77" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P77" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R77" s="25" t="s">
-        <v>78</v>
+      <c r="N77" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P77" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R77" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V77" s="2"/>
     </row>
@@ -13727,25 +13916,25 @@
       <c r="D81" s="4"/>
       <c r="E81" s="2"/>
       <c r="G81" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J81" s="2"/>
       <c r="L81" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="N81" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="N81" s="5" t="s">
+      <c r="P81" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P81" s="5" t="s">
-        <v>36</v>
-      </c>
       <c r="R81" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="U81" s="12"/>
       <c r="V81" s="2"/>
       <c r="X81" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="82" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13754,26 +13943,26 @@
       <c r="C82" s="4"/>
       <c r="D82" s="4"/>
       <c r="E82" s="2"/>
-      <c r="G82" s="25" t="s">
-        <v>78</v>
+      <c r="G82" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J82" s="2"/>
-      <c r="L82" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N82" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P82" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R82" s="25" t="s">
-        <v>78</v>
+      <c r="L82" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N82" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P82" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R82" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="U82" s="6"/>
       <c r="V82" s="2"/>
-      <c r="X82" s="25" t="s">
-        <v>78</v>
+      <c r="X82" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="83" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13792,24 +13981,24 @@
       <c r="D84" s="4"/>
       <c r="E84" s="2"/>
       <c r="G84" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J84" s="2"/>
       <c r="L84" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N84" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="N84" s="7" t="s">
+      <c r="P84" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="P84" s="5" t="s">
+      <c r="R84" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="R84" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="V84" s="2"/>
       <c r="X84" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="85" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13818,25 +14007,25 @@
       <c r="C85" s="4"/>
       <c r="D85" s="4"/>
       <c r="E85" s="2"/>
-      <c r="G85" s="25" t="s">
-        <v>78</v>
+      <c r="G85" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J85" s="2"/>
-      <c r="L85" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N85" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P85" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R85" s="25" t="s">
-        <v>78</v>
+      <c r="L85" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N85" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P85" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R85" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V85" s="2"/>
-      <c r="X85" s="25" t="s">
-        <v>78</v>
+      <c r="X85" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="86" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13855,24 +14044,24 @@
       <c r="D87" s="4"/>
       <c r="E87" s="2"/>
       <c r="G87" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J87" s="2"/>
       <c r="L87" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="N87" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="N87" s="5" t="s">
+      <c r="P87" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="R87" s="5" t="s">
         <v>42</v>
-      </c>
-      <c r="P87" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="R87" s="5" t="s">
-        <v>43</v>
       </c>
       <c r="V87" s="2"/>
       <c r="X87" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="88" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13881,25 +14070,25 @@
       <c r="C88" s="4"/>
       <c r="D88" s="4"/>
       <c r="E88" s="2"/>
-      <c r="G88" s="25" t="s">
-        <v>78</v>
+      <c r="G88" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J88" s="2"/>
-      <c r="L88" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N88" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P88" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R88" s="25" t="s">
-        <v>78</v>
+      <c r="L88" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N88" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P88" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R88" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V88" s="2"/>
-      <c r="X88" s="25" t="s">
-        <v>78</v>
+      <c r="X88" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="89" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13921,24 +14110,24 @@
       <c r="E90" s="2"/>
       <c r="F90"/>
       <c r="G90" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J90" s="2"/>
       <c r="L90" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N90" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N90" s="5" t="s">
+      <c r="P90" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="P90" s="5" t="s">
+      <c r="R90" s="5" t="s">
         <v>46</v>
-      </c>
-      <c r="R90" s="5" t="s">
-        <v>47</v>
       </c>
       <c r="V90" s="2"/>
       <c r="X90" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="91" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13947,25 +14136,25 @@
       <c r="C91" s="4"/>
       <c r="D91" s="4"/>
       <c r="E91" s="2"/>
-      <c r="G91" s="25" t="s">
-        <v>78</v>
+      <c r="G91" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J91" s="2"/>
-      <c r="L91" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N91" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P91" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R91" s="25" t="s">
-        <v>78</v>
+      <c r="L91" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N91" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P91" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R91" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V91" s="2"/>
-      <c r="X91" s="25" t="s">
-        <v>78</v>
+      <c r="X91" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="92" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -13984,14 +14173,14 @@
       <c r="D93" s="4"/>
       <c r="E93" s="2"/>
       <c r="G93" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J93" s="2"/>
       <c r="L93" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N93" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="N93" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="P93"/>
       <c r="Q93"/>
@@ -14004,15 +14193,15 @@
       <c r="C94" s="4"/>
       <c r="D94" s="4"/>
       <c r="E94" s="2"/>
-      <c r="G94" s="25" t="s">
-        <v>78</v>
+      <c r="G94" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J94" s="2"/>
-      <c r="L94" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N94" s="25" t="s">
-        <v>78</v>
+      <c r="L94" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N94" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="P94"/>
       <c r="Q94"/>
@@ -14038,7 +14227,7 @@
       <c r="D96" s="4"/>
       <c r="E96" s="2"/>
       <c r="G96" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J96" s="2"/>
       <c r="L96"/>
@@ -14056,8 +14245,8 @@
       <c r="C97" s="4"/>
       <c r="D97" s="4"/>
       <c r="E97" s="2"/>
-      <c r="G97" s="25" t="s">
-        <v>78</v>
+      <c r="G97" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J97" s="2"/>
       <c r="L97"/>
@@ -14082,15 +14271,15 @@
       <c r="E99" s="2"/>
       <c r="F99" s="8"/>
       <c r="G99" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J99" s="2"/>
       <c r="V99" s="2"/>
     </row>
     <row r="100" spans="1:24" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E100" s="2"/>
-      <c r="G100" s="25" t="s">
-        <v>78</v>
+      <c r="G100" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J100" s="2"/>
       <c r="V100" s="2"/>
@@ -14106,33 +14295,33 @@
       <c r="G102" s="9"/>
       <c r="J102" s="2"/>
       <c r="L102" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="N102" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="N102" s="5" t="s">
+      <c r="P102" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="P102" s="5" t="s">
+      <c r="R102" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="R102" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="V102" s="2"/>
     </row>
     <row r="103" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E103" s="2"/>
       <c r="J103" s="2"/>
-      <c r="L103" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N103" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P103" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R103" s="25" t="s">
-        <v>78</v>
+      <c r="L103" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N103" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P103" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R103" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V103" s="2"/>
     </row>
@@ -14145,21 +14334,21 @@
       <c r="E105" s="2"/>
       <c r="J105" s="2"/>
       <c r="L105" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N105" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="N105" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="V105" s="2"/>
     </row>
     <row r="106" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E106" s="2"/>
       <c r="J106" s="2"/>
-      <c r="L106" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N106" s="25" t="s">
-        <v>78</v>
+      <c r="L106" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N106" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V106" s="2"/>
     </row>
@@ -14189,30 +14378,30 @@
       <c r="D110" s="4"/>
       <c r="E110" s="2"/>
       <c r="G110" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J110" s="2"/>
       <c r="L110" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N110" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="N110" s="5" t="s">
+      <c r="P110" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="P110" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="Q110" s="12"/>
       <c r="R110" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="S110" s="12"/>
       <c r="T110" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U110" s="12"/>
       <c r="V110" s="2"/>
       <c r="X110" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="111" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14221,31 +14410,31 @@
       <c r="C111" s="4"/>
       <c r="D111" s="4"/>
       <c r="E111" s="2"/>
-      <c r="G111" s="25" t="s">
-        <v>78</v>
+      <c r="G111" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J111" s="2"/>
-      <c r="L111" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N111" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P111" s="25" t="s">
-        <v>78</v>
+      <c r="L111" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N111" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P111" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="Q111" s="6"/>
-      <c r="R111" s="25" t="s">
-        <v>78</v>
+      <c r="R111" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="S111" s="6"/>
-      <c r="T111" s="25" t="s">
-        <v>78</v>
+      <c r="T111" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="U111" s="6"/>
       <c r="V111" s="2"/>
-      <c r="X111" s="25" t="s">
-        <v>78</v>
+      <c r="X111" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="112" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14264,27 +14453,27 @@
       <c r="D113" s="4"/>
       <c r="E113" s="2"/>
       <c r="G113" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J113" s="2"/>
       <c r="L113" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N113" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P113" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="R113" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="T113" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="R113" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="T113" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="V113" s="2"/>
       <c r="X113" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="114" spans="1:29" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -14293,28 +14482,28 @@
       <c r="C114" s="4"/>
       <c r="D114" s="4"/>
       <c r="E114" s="2"/>
-      <c r="G114" s="25" t="s">
-        <v>78</v>
+      <c r="G114" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="J114" s="2"/>
-      <c r="L114" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="N114" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="P114" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="R114" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="T114" s="25" t="s">
-        <v>78</v>
+      <c r="L114" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="N114" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="P114" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="R114" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="T114" s="24" t="s">
+        <v>77</v>
       </c>
       <c r="V114" s="2"/>
-      <c r="X114" s="25" t="s">
-        <v>78</v>
+      <c r="X114" s="24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="115" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
@@ -14855,83 +15044,141 @@
     <mergeCell ref="J4:P4"/>
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
-  <conditionalFormatting sqref="A8:AA9 A21:AA209 M19:AA20 A19:K20 A10:K11 O10 Q10 S10:W11 A12:AA12 A15:AA15 A13:M14 O13:O14 Q13:AA13 S14 M10:M11 L11 N11:R11 P14:Q14 AA10:AA11 A18:AA18 A16:K17 M16:M17 L17 O16:O17 N17 Q16:Q17 P17 S16:S17 R17 U16:AA17 T17 U14:AA14">
-    <cfRule type="cellIs" dxfId="22" priority="240" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="243" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 A19:K20 M20:Q20 A21:AA21 M19 O19:Q19 A24:AA209 A22:F23 U19:AA20 O22:AA23 H22:K23 R19:S20">
+    <cfRule type="cellIs" dxfId="38" priority="259" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="244" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="260" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="245" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="261" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="246" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="262" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="247" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="263" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="248" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="264" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="249" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="265" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G48 G68 G71 L82 R82 X82 L85 N85 P85 R85 X85 G88 L88 N88 P88 R88 X88 G91 L91 N91 P91 R91 X91 G94 L94 N94 G97 G100 L103 N103 P103 R103 L106 N106">
-    <cfRule type="cellIs" dxfId="14" priority="9" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A21:AA21 A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 A19:K20 M20:Q20 M19 O19:Q19 A24:AA209 A22:F23 U19:AA20 O22:AA23 H22:K23 R19:S20">
+    <cfRule type="cellIs" dxfId="31" priority="256" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="10" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G48 G68 G71 L82 R82 X82 L85 N85 P85 R85 X85 G88 L88 N88 P88 R88 X88 G91 L91 N91 P91 R91 X91 G94 L94 N94 G97 G100 L103 N103 P103 R103 L106 N106">
+    <cfRule type="cellIs" dxfId="30" priority="25" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="26" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="27" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="12" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="28" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="29" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="30" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="31" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="7" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="17" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="18" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="19" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="20" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="22" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="23" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="24" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L20">
+    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G23">
+    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G22:G23">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X111 R34 T17 N11 N14 G14 G17 G11 L14 L23 N20 T20 R20 X114 P20 G23 P28:U28 G28 L28 N28 L37 T34 G31 N34 P34 G20 P11:U11 G37 G42 N57 U42 P51 G51 G48 N42 P45 P42 N45 G45 R45 P48 R48 P57 N48 N51 P54 N54 R57 R65 N77 U62 N71 N74 G62 N62 P65 P62 N65 G65 P68 G71 N68 P77 P71 R68 P74 G68 X91 R82 X85 U82 L94 X88 L82 N82 P85 L85 N85 R85 P88 L88 N88 R77 L91 N91 X82 R88 R91 N94 G97 G82 G85 P82 G88 G91 P91 G94 G100 L103 N103 P103 R103 L106 L111 G111 G114 L114 P111:U111 N114 N111 P114 R114 N106 T114 P14:Q14 L11 L17 N17 P17 R17 S14 U14" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X111 R34 T17 N11 N14 G14 G17 G11 L14 R20 N20 S14 U14 X114 P20 L20 P28:U28 G28 L28 N28 L37 T34 G31 N34 P34 G20 P11:U11 G37 G42 N57 U42 P51 G51 G48 N42 P45 P42 N45 G45 R45 P48 R48 P57 N48 N51 P54 N54 R57 R65 N77 U62 N71 N74 G62 N62 P65 P62 N65 G65 P68 G71 N68 P77 P71 R68 P74 G68 X91 R82 X85 U82 L94 X88 L82 N82 P85 L85 N85 R85 P88 L88 N88 R77 L91 N91 X82 R88 R91 N94 G97 G82 G85 P82 G88 G91 P91 G94 G100 L103 N103 P103 R103 L106 L111 G111 G114 L114 P111:U111 N114 N111 P114 R114 N106 T114 P14:Q14 L11 L17 N17 P17 R17 G23" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE6BA6B6-EDAF-9D47-A864-5DD0CA35633E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048EA98A-E6BF-7C42-A783-2AC00C9B6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="91">
   <si>
     <t>Legend</t>
   </si>
@@ -168,9 +168,6 @@
     <t>Migrate existing on-prem app provisioning to Azure AD</t>
   </si>
   <si>
-    <t>Migrate existing SaaS app provisioning Azure AD</t>
-  </si>
-  <si>
     <t>Migrate joiner/mover/leaver workflows to Azure AD</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
   </si>
   <si>
     <t>Migrate group management workflows</t>
-  </si>
-  <si>
-    <t>Change provisioning flow of existing users to Azure AD</t>
   </si>
   <si>
     <t xml:space="preserve">Deploy Hybrid Azure AD Join </t>
@@ -319,6 +313,15 @@
   </si>
   <si>
     <t>Remediate risk signals from Identity Protection &amp; MDI</t>
+  </si>
+  <si>
+    <t>Enable on-prem remote access for web apps without VPN</t>
+  </si>
+  <si>
+    <t>Migrate existing SaaS app provisioning to  Azure AD</t>
+  </si>
+  <si>
+    <t>Change provisioning flow of existing groups to AAD</t>
   </si>
 </sst>
 </file>
@@ -692,32 +695,21 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="WorkItem" xfId="1" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
   </cellStyles>
-  <dxfs count="127">
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="119">
     <dxf>
       <font>
         <color theme="0"/>
@@ -794,153 +786,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1809,6 +1654,74 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor theme="1"/>
         </patternFill>
       </fill>
@@ -1878,6 +1791,17 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2043,14 +1967,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>136072</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>364532</xdr:rowOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>329895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>66711</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>184080</xdr:rowOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>45533</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2065,8 +1989,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="471017" y="4816510"/>
-          <a:ext cx="1577452" cy="573174"/>
+          <a:off x="470890" y="5548440"/>
+          <a:ext cx="1593185" cy="581548"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -2442,141 +2366,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Graphic 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Graphic 28">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Graphic 29">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2643,186 +2432,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Graphic 45">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2895600" y="4318000"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Graphic 50">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Graphic 51">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7772400" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Graphic 52">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9918700" y="4337050"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -2914,141 +2523,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Graphic 54">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5676900" y="9112250"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Graphic 55">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7785100" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Graphic 56">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9893300" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
@@ -3076,13 +2550,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3129,13 +2603,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3284,10 +2758,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId12"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3323,7 +2797,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="Rounded Rectangle 68">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
@@ -3542,186 +3016,6 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Graphic 82">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5680075" y="9118600"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Graphic 84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9902825" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Graphic 85">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11998325" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Graphic 86">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="13998575" y="7499350"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>63500</xdr:colOff>
       <xdr:row>44</xdr:row>
@@ -3742,10 +3036,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3792,13 +3086,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3840,10 +3134,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3885,10 +3179,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3930,10 +3224,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4129,10 +3423,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4174,10 +3468,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4219,10 +3513,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4264,10 +3558,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4309,10 +3603,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4354,10 +3648,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4399,10 +3693,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4444,10 +3738,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4489,10 +3783,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4539,13 +3833,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId10"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4618,15 +3912,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>111647</xdr:colOff>
+      <xdr:colOff>180920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>209338</xdr:rowOff>
+      <xdr:rowOff>197793</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>558242</xdr:colOff>
+      <xdr:colOff>540920</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>655933</xdr:rowOff>
+      <xdr:rowOff>557793</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -4655,8 +3949,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2944724" y="2177140"/>
-          <a:ext cx="446595" cy="446595"/>
+          <a:off x="3021102" y="2160520"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4668,22 +3962,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>111648</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>223296</xdr:rowOff>
+      <xdr:colOff>157322</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>204519</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>572198</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>683846</xdr:rowOff>
+      <xdr:colOff>548091</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>595288</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Graphic 35">
+        <xdr:cNvPr id="62" name="Graphic 61">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4705,8 +3999,158 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2944725" y="3809999"/>
-          <a:ext cx="460550" cy="460550"/>
+          <a:off x="2997504" y="7050974"/>
+          <a:ext cx="390769" cy="390769"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>111648</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>251207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>471648</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>611207</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="81" name="Graphic 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7939466" y="2213934"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>159733</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>257934</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>519733</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>617934</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="82" name="Graphic 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10100369" y="2220661"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>90458</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>255520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>450458</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>615520</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="89" name="Graphic 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12132367" y="2218247"/>
+          <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4718,22 +4162,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
+      <xdr:colOff>171787</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276709</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
+      <xdr:colOff>441787</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>636709</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Graphic 19">
+        <xdr:cNvPr id="91" name="IconGrantMultifactorAuthentication">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4742,10 +4186,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4755,8 +4199,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7806592" y="2310702"/>
-          <a:ext cx="355600" cy="355600"/>
+          <a:off x="5898332" y="2239436"/>
+          <a:ext cx="270000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4765,666 +4209,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>41868</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>432637</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>572198</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Graphic 61">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2874945" y="7005934"/>
-          <a:ext cx="390769" cy="390769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>69780</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>237252</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>362857</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>530329</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Graphic 62">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2902857" y="5484725"/>
-          <a:ext cx="293077" cy="293077"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>55301</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>336550</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="381000" cy="381000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Graphic 75">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5665631" y="2304352"/>
-          <a:ext cx="381000" cy="381000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>41867</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>320989</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="376813" cy="376813"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Graphic 77">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7759559" y="2288791"/>
-          <a:ext cx="376813" cy="376813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>111648</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>251207</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>572198</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>711757</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Graphic 80">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7829340" y="2219009"/>
-          <a:ext cx="460550" cy="460550"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>55824</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>223297</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>544286</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>711759</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Graphic 81">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9880879" y="2191099"/>
-          <a:ext cx="488462" cy="488462"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>55823</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>209340</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>530328</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>683845</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Graphic 88">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11974285" y="2177142"/>
-          <a:ext cx="474505" cy="474505"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>125605</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>265164</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>432637</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>674540</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="IconGrantMultifactorAuthentication">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5735935" y="2232966"/>
-          <a:ext cx="307032" cy="409376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>41867</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>320989</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="376813" cy="376813"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Graphic 101">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7759559" y="4005385"/>
-          <a:ext cx="376813" cy="376813"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>125605</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265164</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="307032" cy="409376"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="IconGrantMultifactorAuthentication">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5735935" y="2232966"/>
-          <a:ext cx="307032" cy="409376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>125605</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265164</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="307032" cy="409376"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="IconGrantMultifactorAuthentication">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5735935" y="5470768"/>
-          <a:ext cx="307032" cy="409376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>125605</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265164</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="307032" cy="409376"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="IconGrantMultifactorAuthentication">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7843297" y="5470768"/>
-          <a:ext cx="307032" cy="409376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>125605</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265164</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="307032" cy="409376"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="IconGrantMultifactorAuthentication">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9950660" y="5470768"/>
-          <a:ext cx="307032" cy="409376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>125605</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>265164</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="307032" cy="409376"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="IconGrantMultifactorAuthentication">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9950660" y="5470768"/>
-          <a:ext cx="307032" cy="409376"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -5607,101 +4391,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Graphic 14">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5812134" y="8703757"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>533400</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Graphic 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5812134" y="8703757"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5796,9 +4485,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>41868</xdr:colOff>
+      <xdr:colOff>157323</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>181429</xdr:rowOff>
+      <xdr:rowOff>250702</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="390769" cy="390769"/>
     <xdr:pic>
@@ -5815,10 +4504,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5828,368 +4517,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2874945" y="7005934"/>
+          <a:off x="2997505" y="9106066"/>
           <a:ext cx="390769" cy="390769"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Graphic 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C0CD9420-C14A-F44E-98B0-2BCBC72E0FCA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5824834" y="7154705"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Graphic 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{322F50EC-6A6E-E545-8771-BC1CFCABDB3A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5824834" y="8773607"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Graphic 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9CCE8A5-86C6-FB4F-A2F6-F790C462EEA7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5824834" y="8773607"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Graphic 19">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C9EC487-CBFB-FA43-AED2-222C625ADFA3}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5824834" y="8773607"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Graphic 20">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86010977-F34F-1A45-9CD4-244B6A186A3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7906797" y="10322658"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Graphic 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE664F4-8734-A246-81E7-9007A4DE6B5F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12132966" y="8773607"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Graphic 23">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C536685-FDB4-F946-9924-4C452483C043}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12132966" y="8773607"/>
-          <a:ext cx="355600" cy="355600"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>330200</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="355600" cy="355600"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Graphic 24">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{432812CA-D6A4-3D43-BD60-D3A64FDBCA45}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12132966" y="8773607"/>
-          <a:ext cx="355600" cy="355600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6225,10 +4554,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6440,546 +4769,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Graphic 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FE4CCE53-227E-7D42-9814-5019C969C841}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="13937273"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Graphic 31">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD801E7B-62DD-F547-8979-B0B54A8AE416}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="13937273"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Graphic 32">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B14076D9-8A3D-8942-B558-F34E31AA2F53}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="13937273"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Graphic 33">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025E2FF7-9229-524D-83CE-A1743D097C2A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="13937273"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Graphic 37">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6828C33-7E47-8C4E-86B8-90C6D7B12D5E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="13937273"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Graphic 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8130DC2-4E8B-A448-BF72-B5C87682A4FD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12120266" y="12318372"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Graphic 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38A6010D-5286-5C41-AE05-22C5129F86A6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5812134" y="15556174"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Graphic 44">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{998AD6FD-0899-8040-BB93-4AC89FFC1792}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="15556174"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Graphic 59">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62B65FD-CECD-C74D-8C70-895740A1497A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10026859" y="15556174"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>201805</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>274307</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Graphic 67">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C92E188-2BA3-C944-ABA8-B907BFF02A63}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16544332" y="15570131"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Graphic 71">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7978C08-66AB-FD41-94AB-9D0E55C0E87E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="17175075"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Graphic 78">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{667C9A53-9F11-CF47-AB66-D3196A523B0F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="18793976"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -7071,51 +4860,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Graphic 109">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57DAE608-F2B5-1E4B-8B08-EF7785296225}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12120266" y="18793976"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -7218,10 +4962,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7263,10 +5007,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7399,10 +5143,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7444,10 +5188,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7494,10 +5238,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId43"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7544,10 +5288,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId43"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7669,10 +5413,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId45"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7714,10 +5458,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7759,10 +5503,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7895,10 +5639,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7940,10 +5684,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8076,10 +5820,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8212,10 +5956,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8348,10 +6092,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8484,10 +6228,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8529,10 +6273,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8574,10 +6318,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8597,6 +6341,5208 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>161636</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>521636</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>602455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="99" name="Graphic 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0AD035F-C5A6-F048-9516-127E18BBF2F5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5888181" y="3833091"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>150091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>277091</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>510091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>637091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="107" name="Graphic 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F327661B-1A64-13BB-0DAA-477A1AEEDF58}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId43"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977909" y="5495636"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>138546</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>254001</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="360000" cy="360000"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="Graphic 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{297CC5CD-E02F-0B46-B5CB-51DCE58C6AE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId45"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7966364" y="3844637"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>150091</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219365</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>582091</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>651365</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="114" name="Graphic 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2AE90792-BF81-5C71-60EE-C074045B3F96}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7977909" y="3810001"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>150091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>510091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>602455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="115" name="Graphic 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB22235A-DB5F-652D-2824-23A2F180C1D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5876636" y="5461000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161637</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>521637</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>602455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="Graphic 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD0E4C64-A915-E69B-53C5-8627F36A218D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10102273" y="5461000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>161637</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>521637</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="117" name="Graphic 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{526556AD-496D-6669-D636-9299EAC3BB39}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14212455" y="5472545"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>150091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>242455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>510091</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>602455</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="119" name="Graphic 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D08C2D8-6E10-26F5-0408-EFFFB54A9C4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12192000" y="5461000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>184725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>277092</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>544725</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>636009</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="120" name="Graphic 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46CA5227-C849-CC48-8A1F-8B7554E23A8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId2"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3024907" y="5495637"/>
+          <a:ext cx="360000" cy="358917"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>103909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>207818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>535909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>639818</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="121" name="Graphic 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CC12402E-EAF9-A34C-8236-4AD7BC4F5ECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12145818" y="7054273"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173182</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>288636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533182</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>648636</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="122" name="Graphic 121">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66B20B8E-93F5-AA21-032B-5FC8CA08C3ED}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12215091" y="9144000"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>302488</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>609909</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>736906</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="128" name="Group 127">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0142C4E9-021B-E3B8-039F-26223B87E6BE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10085136" y="7227330"/>
+          <a:ext cx="457510" cy="434418"/>
+          <a:chOff x="10093035" y="7102763"/>
+          <a:chExt cx="457510" cy="434418"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="124" name="Graphic 123">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3AE6BB-7F07-A940-BE90-B207D14E3E20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10093035" y="7102763"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="125" name="Graphic 124">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{362B4FBE-92BD-087E-AE64-6361D057B8B0}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10298545" y="7285181"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>180921</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>281023</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>681491</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>681491</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="127" name="Group 126">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7915112B-7B97-B241-71F1-3106F6D60E0F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="3028395" y="3917234"/>
+          <a:ext cx="500570" cy="400468"/>
+          <a:chOff x="3021103" y="3871659"/>
+          <a:chExt cx="500570" cy="400468"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="36" name="Graphic 35">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3021103" y="3871659"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="126" name="Graphic 125">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5D95590-0D98-A546-8948-A3F110424B6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="3269673" y="4020127"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>150090</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>265545</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>644543</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>690727</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="133" name="Group 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FCA4584-A003-786D-F6D2-4F8E6D31745D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7983985" y="7190387"/>
+          <a:ext cx="494453" cy="425182"/>
+          <a:chOff x="7977908" y="7112000"/>
+          <a:chExt cx="494453" cy="425182"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="123" name="Graphic 122">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72A7490F-17FC-5A7C-0B28-C6BE0CA00083}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7977908" y="7112000"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="129" name="Graphic 128">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC0B0B9F-73D6-5F3E-A2FF-2D0AA35BFD6B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8220361" y="7285182"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>115456</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>265542</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>566034</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>716127</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="132" name="Group 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14243740-9EDA-9F0B-E67E-9A09A1977A41}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="5850509" y="7190384"/>
+          <a:ext cx="450578" cy="450585"/>
+          <a:chOff x="5842001" y="7111997"/>
+          <a:chExt cx="450578" cy="450585"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="130" name="Graphic 129">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37C4AEBA-6E2B-0980-9C20-910A61B2CA6F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5842001" y="7111997"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="131" name="Graphic 130">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB77F667-0581-4442-A718-228F45397375}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="6040579" y="7310582"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>196273</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>559000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>628273</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="134" name="Graphic 133">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C50EA0A-1E0A-AE40-BCAF-1F78D1A770E3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5853545" y="9051637"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>129308</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>221672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>612534</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>630761</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="162" name="Group 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BA48584-5BA0-22AC-8CE8-00568015609E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7963203" y="9178514"/>
+          <a:ext cx="483226" cy="409089"/>
+          <a:chOff x="7963203" y="9178514"/>
+          <a:chExt cx="483226" cy="409089"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="137" name="Graphic 136">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1C7C76A-8C77-41DB-253F-40FDB97E33A1}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7963203" y="9178514"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="161" name="Group 160">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{020BA824-91C1-3001-A0E3-8D31BFF9F787}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="8189520" y="9356249"/>
+            <a:ext cx="256909" cy="231354"/>
+            <a:chOff x="14756875" y="9322848"/>
+            <a:chExt cx="237461" cy="194400"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="153" name="Freeform 152">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3FCAA11-0C7E-5106-69CF-D664414AB4C6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14876205" y="9413568"/>
+              <a:ext cx="118131" cy="71759"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 107572 w 118131"/>
+                <a:gd name="connsiteY0" fmla="*/ 70560 h 71759"/>
+                <a:gd name="connsiteX1" fmla="*/ 118132 w 118131"/>
+                <a:gd name="connsiteY1" fmla="*/ 60000 h 71759"/>
+                <a:gd name="connsiteX2" fmla="*/ 59332 w 118131"/>
+                <a:gd name="connsiteY2" fmla="*/ 0 h 71759"/>
+                <a:gd name="connsiteX3" fmla="*/ 52 w 118131"/>
+                <a:gd name="connsiteY3" fmla="*/ 60000 h 71759"/>
+                <a:gd name="connsiteX4" fmla="*/ 9412 w 118131"/>
+                <a:gd name="connsiteY4" fmla="*/ 71760 h 71759"/>
+                <a:gd name="connsiteX5" fmla="*/ 107572 w 118131"/>
+                <a:gd name="connsiteY5" fmla="*/ 71760 h 71759"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX5" y="connsiteY5"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="118131" h="71759">
+                  <a:moveTo>
+                    <a:pt x="107572" y="70560"/>
+                  </a:moveTo>
+                  <a:cubicBezTo>
+                    <a:pt x="113404" y="70560"/>
+                    <a:pt x="118132" y="65832"/>
+                    <a:pt x="118132" y="60000"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="118139" y="27326"/>
+                    <a:pt x="91998" y="653"/>
+                    <a:pt x="59332" y="0"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="22612" y="0"/>
+                    <a:pt x="3652" y="22800"/>
+                    <a:pt x="52" y="60000"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="-515" y="65803"/>
+                    <a:pt x="3628" y="71011"/>
+                    <a:pt x="9412" y="71760"/>
+                  </a:cubicBezTo>
+                  <a:lnTo>
+                    <a:pt x="107572" y="71760"/>
+                  </a:lnTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:srgbClr val="773ADC"/>
+            </a:solidFill>
+            <a:ln w="23813" cap="flat">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="156" name="Freeform 155">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4C2C8D6-783B-D4DD-897A-C599A90D77F1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14902417" y="9355008"/>
+              <a:ext cx="66240" cy="66239"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 66240 w 66240"/>
+                <a:gd name="connsiteY0" fmla="*/ 33120 h 66239"/>
+                <a:gd name="connsiteX1" fmla="*/ 33120 w 66240"/>
+                <a:gd name="connsiteY1" fmla="*/ 66240 h 66239"/>
+                <a:gd name="connsiteX2" fmla="*/ 0 w 66240"/>
+                <a:gd name="connsiteY2" fmla="*/ 33120 h 66239"/>
+                <a:gd name="connsiteX3" fmla="*/ 33120 w 66240"/>
+                <a:gd name="connsiteY3" fmla="*/ 0 h 66239"/>
+                <a:gd name="connsiteX4" fmla="*/ 66240 w 66240"/>
+                <a:gd name="connsiteY4" fmla="*/ 33120 h 66239"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="66240" h="66239">
+                  <a:moveTo>
+                    <a:pt x="66240" y="33120"/>
+                  </a:moveTo>
+                  <a:cubicBezTo>
+                    <a:pt x="66240" y="51412"/>
+                    <a:pt x="51412" y="66240"/>
+                    <a:pt x="33120" y="66240"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="14828" y="66240"/>
+                    <a:pt x="0" y="51412"/>
+                    <a:pt x="0" y="33120"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="0" y="14828"/>
+                    <a:pt x="14828" y="0"/>
+                    <a:pt x="33120" y="0"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="51412" y="0"/>
+                    <a:pt x="66240" y="14828"/>
+                    <a:pt x="66240" y="33120"/>
+                  </a:cubicBezTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:srgbClr val="773ADC"/>
+            </a:solidFill>
+            <a:ln w="23813" cap="flat">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="157" name="Freeform 156">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8C5AE98-8932-B2A7-D048-EE0D1392CFBE}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14756875" y="9409967"/>
+              <a:ext cx="176262" cy="107281"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 160421 w 176262"/>
+                <a:gd name="connsiteY0" fmla="*/ 107280 h 107281"/>
+                <a:gd name="connsiteX1" fmla="*/ 176261 w 176262"/>
+                <a:gd name="connsiteY1" fmla="*/ 91925 h 107281"/>
+                <a:gd name="connsiteX2" fmla="*/ 176261 w 176262"/>
+                <a:gd name="connsiteY2" fmla="*/ 91440 h 107281"/>
+                <a:gd name="connsiteX3" fmla="*/ 176261 w 176262"/>
+                <a:gd name="connsiteY3" fmla="*/ 89520 h 107281"/>
+                <a:gd name="connsiteX4" fmla="*/ 88181 w 176262"/>
+                <a:gd name="connsiteY4" fmla="*/ 0 h 107281"/>
+                <a:gd name="connsiteX5" fmla="*/ 101 w 176262"/>
+                <a:gd name="connsiteY5" fmla="*/ 89760 h 107281"/>
+                <a:gd name="connsiteX6" fmla="*/ 13841 w 176262"/>
+                <a:gd name="connsiteY6" fmla="*/ 107021 h 107281"/>
+                <a:gd name="connsiteX7" fmla="*/ 14021 w 176262"/>
+                <a:gd name="connsiteY7" fmla="*/ 107040 h 107281"/>
+                <a:gd name="connsiteX8" fmla="*/ 160661 w 176262"/>
+                <a:gd name="connsiteY8" fmla="*/ 107040 h 107281"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX5" y="connsiteY5"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX6" y="connsiteY6"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX7" y="connsiteY7"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX8" y="connsiteY8"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="176262" h="107281">
+                  <a:moveTo>
+                    <a:pt x="160421" y="107280"/>
+                  </a:moveTo>
+                  <a:cubicBezTo>
+                    <a:pt x="169035" y="107414"/>
+                    <a:pt x="176127" y="100538"/>
+                    <a:pt x="176261" y="91925"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="176263" y="91762"/>
+                    <a:pt x="176263" y="91601"/>
+                    <a:pt x="176261" y="91440"/>
+                  </a:cubicBezTo>
+                  <a:lnTo>
+                    <a:pt x="176261" y="89520"/>
+                  </a:lnTo>
+                  <a:cubicBezTo>
+                    <a:pt x="170021" y="40320"/>
+                    <a:pt x="141941" y="0"/>
+                    <a:pt x="88181" y="0"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="34421" y="0"/>
+                    <a:pt x="5381" y="34080"/>
+                    <a:pt x="101" y="89760"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="-871" y="98321"/>
+                    <a:pt x="5281" y="106049"/>
+                    <a:pt x="13841" y="107021"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="13901" y="107028"/>
+                    <a:pt x="13961" y="107033"/>
+                    <a:pt x="14021" y="107040"/>
+                  </a:cubicBezTo>
+                  <a:lnTo>
+                    <a:pt x="160661" y="107040"/>
+                  </a:lnTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:srgbClr val="A67AF4"/>
+            </a:solidFill>
+            <a:ln w="23813" cap="flat">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="158" name="Freeform 157">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6508D9E4-B11F-031E-9FA8-3BD6FA849142}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14819137" y="9413807"/>
+              <a:ext cx="52799" cy="70320"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 26640 w 52799"/>
+                <a:gd name="connsiteY0" fmla="*/ 7920 h 70320"/>
+                <a:gd name="connsiteX1" fmla="*/ 0 w 52799"/>
+                <a:gd name="connsiteY1" fmla="*/ 0 h 70320"/>
+                <a:gd name="connsiteX2" fmla="*/ 26400 w 52799"/>
+                <a:gd name="connsiteY2" fmla="*/ 70320 h 70320"/>
+                <a:gd name="connsiteX3" fmla="*/ 52800 w 52799"/>
+                <a:gd name="connsiteY3" fmla="*/ 1440 h 70320"/>
+                <a:gd name="connsiteX4" fmla="*/ 26640 w 52799"/>
+                <a:gd name="connsiteY4" fmla="*/ 7920 h 70320"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="52799" h="70320">
+                  <a:moveTo>
+                    <a:pt x="26640" y="7920"/>
+                  </a:moveTo>
+                  <a:cubicBezTo>
+                    <a:pt x="17174" y="7966"/>
+                    <a:pt x="7906" y="5210"/>
+                    <a:pt x="0" y="0"/>
+                  </a:cubicBezTo>
+                  <a:lnTo>
+                    <a:pt x="26400" y="70320"/>
+                  </a:lnTo>
+                  <a:lnTo>
+                    <a:pt x="52800" y="1440"/>
+                  </a:lnTo>
+                  <a:cubicBezTo>
+                    <a:pt x="44878" y="6053"/>
+                    <a:pt x="35801" y="8302"/>
+                    <a:pt x="26640" y="7920"/>
+                  </a:cubicBezTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="80000"/>
+              </a:srgbClr>
+            </a:solidFill>
+            <a:ln w="23813" cap="flat">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="159" name="Freeform 158">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AB9D7FC6-8195-BF00-26A4-461CC6212511}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="14796097" y="9322848"/>
+              <a:ext cx="98880" cy="98880"/>
+            </a:xfrm>
+            <a:custGeom>
+              <a:avLst/>
+              <a:gdLst>
+                <a:gd name="connsiteX0" fmla="*/ 98880 w 98880"/>
+                <a:gd name="connsiteY0" fmla="*/ 49440 h 98880"/>
+                <a:gd name="connsiteX1" fmla="*/ 49440 w 98880"/>
+                <a:gd name="connsiteY1" fmla="*/ 98880 h 98880"/>
+                <a:gd name="connsiteX2" fmla="*/ 0 w 98880"/>
+                <a:gd name="connsiteY2" fmla="*/ 49440 h 98880"/>
+                <a:gd name="connsiteX3" fmla="*/ 49440 w 98880"/>
+                <a:gd name="connsiteY3" fmla="*/ 0 h 98880"/>
+                <a:gd name="connsiteX4" fmla="*/ 98880 w 98880"/>
+                <a:gd name="connsiteY4" fmla="*/ 49440 h 98880"/>
+              </a:gdLst>
+              <a:ahLst/>
+              <a:cxnLst>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX0" y="connsiteY0"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX1" y="connsiteY1"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX2" y="connsiteY2"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX3" y="connsiteY3"/>
+                </a:cxn>
+                <a:cxn ang="0">
+                  <a:pos x="connsiteX4" y="connsiteY4"/>
+                </a:cxn>
+              </a:cxnLst>
+              <a:rect l="l" t="t" r="r" b="b"/>
+              <a:pathLst>
+                <a:path w="98880" h="98880">
+                  <a:moveTo>
+                    <a:pt x="98880" y="49440"/>
+                  </a:moveTo>
+                  <a:cubicBezTo>
+                    <a:pt x="98880" y="76745"/>
+                    <a:pt x="76745" y="98880"/>
+                    <a:pt x="49440" y="98880"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="22135" y="98880"/>
+                    <a:pt x="0" y="76745"/>
+                    <a:pt x="0" y="49440"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="0" y="22135"/>
+                    <a:pt x="22135" y="0"/>
+                    <a:pt x="49440" y="0"/>
+                  </a:cubicBezTo>
+                  <a:cubicBezTo>
+                    <a:pt x="76745" y="0"/>
+                    <a:pt x="98880" y="22135"/>
+                    <a:pt x="98880" y="49440"/>
+                  </a:cubicBezTo>
+                  <a:close/>
+                </a:path>
+              </a:pathLst>
+            </a:custGeom>
+            <a:solidFill>
+              <a:srgbClr val="A67AF4"/>
+            </a:solidFill>
+            <a:ln w="23813" cap="flat">
+              <a:noFill/>
+              <a:prstDash val="solid"/>
+              <a:miter/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr rtlCol="0" anchor="ctr"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:endParaRPr lang="en-GB"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </xdr:grpSp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>157746</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>227624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>615256</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>662042</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="163" name="Group 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7947F2-8151-164F-B430-D94A805635E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10090483" y="9184466"/>
+          <a:ext cx="457510" cy="434418"/>
+          <a:chOff x="10093035" y="7102763"/>
+          <a:chExt cx="457510" cy="434418"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="164" name="Graphic 163">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718731D2-961D-4369-C2B8-6E376F2482E2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10093035" y="7102763"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="165" name="Graphic 164">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8CDAD155-E88C-02E2-BCC9-0F8655D69A20}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10298545" y="7285181"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>240629</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>560525</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>600629</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="166" name="Graphic 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E7C1F18-8B5A-3C54-3F0D-EFEB0A31BC4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5935578" y="10841787"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592421</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>632526</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="171" name="Graphic 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C7BA8C3-2DC2-5627-AEA0-0A9A83A55343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7994316" y="10801684"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187158</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>547158</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="172" name="Graphic 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C729849B-19D9-FAE1-9B28-78D54C13F675}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10119895" y="10855158"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>160420</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>253998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>520420</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>613998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="173" name="Graphic 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D6A5E2-88BF-7630-BBAA-E6C0F97E6C01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12191999" y="10855156"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>120314</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>280735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>555367</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>769262</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="178" name="Group 177">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{584A31D5-65B4-5C21-ADAD-E70C9311A4A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="18381577" y="9237577"/>
+          <a:ext cx="435053" cy="488527"/>
+          <a:chOff x="18381577" y="9237577"/>
+          <a:chExt cx="435053" cy="488527"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="176" name="Graphic 175">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F206B9D6-9249-1DA5-3A05-C6541E26BD72}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18381577" y="9237577"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="174" name="Graphic 173">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A12AA1-E96D-DA4E-BC40-4A09EBC89F17}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18528630" y="9438104"/>
+            <a:ext cx="288000" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>160419</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>280737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>640924</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>787977</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="181" name="Group 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55897B79-4BC3-3C8C-7408-05D2DEA37805}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16469893" y="9237579"/>
+          <a:ext cx="480505" cy="507240"/>
+          <a:chOff x="16456525" y="9250947"/>
+          <a:chExt cx="480505" cy="507240"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="179" name="Graphic 178">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0BD42FB-E6FF-3AE4-7938-FEC064D396AE}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16456525" y="9250947"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="180" name="Graphic 179">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3B41CD8-8D8D-D64F-B4F7-5A58F34ACCA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16649030" y="9470187"/>
+            <a:ext cx="288000" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>147053</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>240632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>604563</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>675050</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="182" name="Group 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49E369B2-3DC4-D64E-91F4-5F119A9F4686}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16456527" y="10841790"/>
+          <a:ext cx="457510" cy="434418"/>
+          <a:chOff x="10093035" y="7102763"/>
+          <a:chExt cx="457510" cy="434418"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="183" name="Graphic 182">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{791D8D6A-DFF8-562B-B3C8-508C0B883890}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10093035" y="7102763"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="184" name="Graphic 183">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EF3BA15-40EF-0A95-7A55-3F8005C80DA2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10298545" y="7285181"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>227262</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>240632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>497262</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>600632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="188" name="IconGrantMultifactorAuthentication">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F869F901-B981-ED45-9887-02798D92943F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5962315" y="12486106"/>
+          <a:ext cx="270000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>227262</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>200527</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>587262</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>560527</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="189" name="Graphic 188">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B875CEF8-6C23-8750-6DEE-724E2BFF6E68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3074736" y="10801685"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160420</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>240632</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>541596</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>600632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="190" name="Graphic 189">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC7F7B9E-6AEF-C34D-E40B-DD6A526026D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10093157" y="12486106"/>
+          <a:ext cx="381176" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>213894</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>253998</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>573894</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>613998</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="192" name="Graphic 191">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0897C6CC-9ED2-30B9-7C42-AFCFCB731F84}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId81"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14250736" y="12499472"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>200526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>267364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>560526</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>627364</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="193" name="Graphic 192">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC638200-17F5-A136-26E0-2A80498EC4FA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12232105" y="12512838"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>240631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>617931</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>675049</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="194" name="Group 193">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E958451-5F29-7C44-B6DF-550BE4B01BAA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="10093158" y="14130420"/>
+          <a:ext cx="457510" cy="434418"/>
+          <a:chOff x="10093035" y="7102763"/>
+          <a:chExt cx="457510" cy="434418"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="195" name="Graphic 194">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F5D3946-FAE2-DDAC-F16D-CE163BAC4794}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10093035" y="7102763"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="196" name="Graphic 195">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{570AC572-51DE-9E6F-3A7B-ED1936040C8B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10298545" y="7285181"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>187158</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>227262</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>547158</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>587262</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="197" name="Graphic 196">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD7B2C7B-5C9C-49AF-D19A-2EC3CC1870A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId84"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8021053" y="12472736"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>160422</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>227264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>592422</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>659264</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="198" name="Graphic 197">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{827A4619-C8CB-0165-E05F-910C704BF679}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId86"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7994317" y="14117053"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>173789</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>592421</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>605789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="199" name="Graphic 198">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FBC07F2-4A84-8FC3-59DC-B3BFD6338B1E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895474" y="14063578"/>
+          <a:ext cx="432000" cy="432000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>120316</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>286933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>627411</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>588210</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="200" name="Group 199">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3AE3E76-FC0D-8DFE-2CF8-9AB96D46F9CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks noChangeAspect="1"/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7954211" y="15821038"/>
+          <a:ext cx="507095" cy="301277"/>
+          <a:chOff x="5586385" y="2820460"/>
+          <a:chExt cx="426564" cy="232916"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="201" name="Freeform: Shape 50">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D1F247A4-C78E-AD70-D396-1113F4B2F0A9}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5586385" y="2820460"/>
+            <a:ext cx="417127" cy="232916"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 319265"/>
+              <a:gd name="connsiteY0" fmla="*/ 163624 h 179587"/>
+              <a:gd name="connsiteX1" fmla="*/ 0 w 319265"/>
+              <a:gd name="connsiteY1" fmla="*/ 13968 h 179587"/>
+              <a:gd name="connsiteX2" fmla="*/ 15963 w 319265"/>
+              <a:gd name="connsiteY2" fmla="*/ 0 h 179587"/>
+              <a:gd name="connsiteX3" fmla="*/ 225481 w 319265"/>
+              <a:gd name="connsiteY3" fmla="*/ 0 h 179587"/>
+              <a:gd name="connsiteX4" fmla="*/ 239449 w 319265"/>
+              <a:gd name="connsiteY4" fmla="*/ 15963 h 179587"/>
+              <a:gd name="connsiteX5" fmla="*/ 239449 w 319265"/>
+              <a:gd name="connsiteY5" fmla="*/ 165619 h 179587"/>
+              <a:gd name="connsiteX6" fmla="*/ 225481 w 319265"/>
+              <a:gd name="connsiteY6" fmla="*/ 179587 h 179587"/>
+              <a:gd name="connsiteX7" fmla="*/ 15963 w 319265"/>
+              <a:gd name="connsiteY7" fmla="*/ 179587 h 179587"/>
+              <a:gd name="connsiteX8" fmla="*/ 0 w 319265"/>
+              <a:gd name="connsiteY8" fmla="*/ 163624 h 179587"/>
+              <a:gd name="connsiteX9" fmla="*/ 0 w 319265"/>
+              <a:gd name="connsiteY9" fmla="*/ 163624 h 179587"/>
+              <a:gd name="connsiteX10" fmla="*/ 239449 w 319265"/>
+              <a:gd name="connsiteY10" fmla="*/ 155642 h 179587"/>
+              <a:gd name="connsiteX11" fmla="*/ 325251 w 319265"/>
+              <a:gd name="connsiteY11" fmla="*/ 155642 h 179587"/>
+              <a:gd name="connsiteX12" fmla="*/ 325251 w 319265"/>
+              <a:gd name="connsiteY12" fmla="*/ 21950 h 179587"/>
+              <a:gd name="connsiteX13" fmla="*/ 239449 w 319265"/>
+              <a:gd name="connsiteY13" fmla="*/ 21950 h 179587"/>
+              <a:gd name="connsiteX14" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY14" fmla="*/ 69839 h 179587"/>
+              <a:gd name="connsiteX15" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY15" fmla="*/ 63853 h 179587"/>
+              <a:gd name="connsiteX16" fmla="*/ 279357 w 319265"/>
+              <a:gd name="connsiteY16" fmla="*/ 63853 h 179587"/>
+              <a:gd name="connsiteX17" fmla="*/ 279357 w 319265"/>
+              <a:gd name="connsiteY17" fmla="*/ 69839 h 179587"/>
+              <a:gd name="connsiteX18" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY18" fmla="*/ 69839 h 179587"/>
+              <a:gd name="connsiteX19" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY19" fmla="*/ 69839 h 179587"/>
+              <a:gd name="connsiteX20" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY20" fmla="*/ 69839 h 179587"/>
+              <a:gd name="connsiteX21" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY21" fmla="*/ 113738 h 179587"/>
+              <a:gd name="connsiteX22" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY22" fmla="*/ 107752 h 179587"/>
+              <a:gd name="connsiteX23" fmla="*/ 279357 w 319265"/>
+              <a:gd name="connsiteY23" fmla="*/ 107752 h 179587"/>
+              <a:gd name="connsiteX24" fmla="*/ 279357 w 319265"/>
+              <a:gd name="connsiteY24" fmla="*/ 113738 h 179587"/>
+              <a:gd name="connsiteX25" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY25" fmla="*/ 113738 h 179587"/>
+              <a:gd name="connsiteX26" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY26" fmla="*/ 113738 h 179587"/>
+              <a:gd name="connsiteX27" fmla="*/ 285343 w 319265"/>
+              <a:gd name="connsiteY27" fmla="*/ 113738 h 179587"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX9" y="connsiteY9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX10" y="connsiteY10"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX11" y="connsiteY11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX12" y="connsiteY12"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX13" y="connsiteY13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX14" y="connsiteY14"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX15" y="connsiteY15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX16" y="connsiteY16"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX17" y="connsiteY17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX18" y="connsiteY18"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX19" y="connsiteY19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX20" y="connsiteY20"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX21" y="connsiteY21"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX22" y="connsiteY22"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX23" y="connsiteY23"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX24" y="connsiteY24"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX25" y="connsiteY25"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX26" y="connsiteY26"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX27" y="connsiteY27"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="319265" h="179587">
+                <a:moveTo>
+                  <a:pt x="0" y="163624"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="13968"/>
+                  <a:pt x="0" y="13968"/>
+                  <a:pt x="0" y="13968"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="5986"/>
+                  <a:pt x="7982" y="0"/>
+                  <a:pt x="15963" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="225481" y="0"/>
+                  <a:pt x="225481" y="0"/>
+                  <a:pt x="225481" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="233463" y="0"/>
+                  <a:pt x="239449" y="5986"/>
+                  <a:pt x="239449" y="15963"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="239449" y="165619"/>
+                  <a:pt x="239449" y="165619"/>
+                  <a:pt x="239449" y="165619"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="239449" y="173601"/>
+                  <a:pt x="233463" y="179587"/>
+                  <a:pt x="225481" y="179587"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="15963" y="179587"/>
+                  <a:pt x="15963" y="179587"/>
+                  <a:pt x="15963" y="179587"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="7982" y="179587"/>
+                  <a:pt x="0" y="173601"/>
+                  <a:pt x="0" y="163624"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="163624"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="239449" y="155642"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="325251" y="155642"/>
+                  <a:pt x="325251" y="155642"/>
+                  <a:pt x="325251" y="155642"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="325251" y="21950"/>
+                  <a:pt x="325251" y="21950"/>
+                  <a:pt x="325251" y="21950"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="239449" y="21950"/>
+                  <a:pt x="239449" y="21950"/>
+                  <a:pt x="239449" y="21950"/>
+                </a:cubicBezTo>
+                <a:moveTo>
+                  <a:pt x="285343" y="69839"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="285343" y="63853"/>
+                  <a:pt x="285343" y="63853"/>
+                  <a:pt x="285343" y="63853"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="279357" y="63853"/>
+                  <a:pt x="279357" y="63853"/>
+                  <a:pt x="279357" y="63853"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="279357" y="69839"/>
+                  <a:pt x="279357" y="69839"/>
+                  <a:pt x="279357" y="69839"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="285343" y="69839"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="285343" y="69839"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="285343" y="69839"/>
+                </a:lnTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="285343" y="113738"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="285343" y="107752"/>
+                  <a:pt x="285343" y="107752"/>
+                  <a:pt x="285343" y="107752"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="279357" y="107752"/>
+                  <a:pt x="279357" y="107752"/>
+                  <a:pt x="279357" y="107752"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="279357" y="113738"/>
+                  <a:pt x="279357" y="113738"/>
+                  <a:pt x="279357" y="113738"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="285343" y="113738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="285343" y="113738"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="285343" y="113738"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="C1C1C1"/>
+          </a:solidFill>
+          <a:ln w="19645" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914192" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="282828"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Segoe UI"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="202" name="Freeform: Shape 51">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E146DAD8-E971-BBC2-79EA-84B4C2FD87B6}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5636111" y="2882167"/>
+            <a:ext cx="106252" cy="107639"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 79816"/>
+              <a:gd name="connsiteY0" fmla="*/ 43899 h 79816"/>
+              <a:gd name="connsiteX1" fmla="*/ 45894 w 79816"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 79816"/>
+              <a:gd name="connsiteX2" fmla="*/ 91789 w 79816"/>
+              <a:gd name="connsiteY2" fmla="*/ 43899 h 79816"/>
+              <a:gd name="connsiteX3" fmla="*/ 45894 w 79816"/>
+              <a:gd name="connsiteY3" fmla="*/ 87798 h 79816"/>
+              <a:gd name="connsiteX4" fmla="*/ 0 w 79816"/>
+              <a:gd name="connsiteY4" fmla="*/ 43899 h 79816"/>
+              <a:gd name="connsiteX5" fmla="*/ 0 w 79816"/>
+              <a:gd name="connsiteY5" fmla="*/ 43899 h 79816"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="79816" h="79816">
+                <a:moveTo>
+                  <a:pt x="0" y="43899"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="0" y="19954"/>
+                  <a:pt x="19954" y="0"/>
+                  <a:pt x="45894" y="0"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="71835" y="0"/>
+                  <a:pt x="91789" y="19954"/>
+                  <a:pt x="91789" y="43899"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="91789" y="67844"/>
+                  <a:pt x="71835" y="87798"/>
+                  <a:pt x="45894" y="87798"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="19954" y="87798"/>
+                  <a:pt x="0" y="67844"/>
+                  <a:pt x="0" y="43899"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="43899"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln w="19645" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914192" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="282828"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Segoe UI"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="203" name="Freeform: Shape 52">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38D10F02-3316-CA91-8956-4A5BBA972878}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5898341" y="2824347"/>
+            <a:ext cx="114608" cy="226942"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 71443 w 146133"/>
+              <a:gd name="connsiteY0" fmla="*/ 168460 h 278873"/>
+              <a:gd name="connsiteX1" fmla="*/ 71443 w 146133"/>
+              <a:gd name="connsiteY1" fmla="*/ 178201 h 278873"/>
+              <a:gd name="connsiteX2" fmla="*/ 81185 w 146133"/>
+              <a:gd name="connsiteY2" fmla="*/ 178201 h 278873"/>
+              <a:gd name="connsiteX3" fmla="*/ 81185 w 146133"/>
+              <a:gd name="connsiteY3" fmla="*/ 168460 h 278873"/>
+              <a:gd name="connsiteX4" fmla="*/ 71443 w 146133"/>
+              <a:gd name="connsiteY4" fmla="*/ 168460 h 278873"/>
+              <a:gd name="connsiteX5" fmla="*/ 71443 w 146133"/>
+              <a:gd name="connsiteY5" fmla="*/ 97016 h 278873"/>
+              <a:gd name="connsiteX6" fmla="*/ 71443 w 146133"/>
+              <a:gd name="connsiteY6" fmla="*/ 106758 h 278873"/>
+              <a:gd name="connsiteX7" fmla="*/ 81185 w 146133"/>
+              <a:gd name="connsiteY7" fmla="*/ 106758 h 278873"/>
+              <a:gd name="connsiteX8" fmla="*/ 81185 w 146133"/>
+              <a:gd name="connsiteY8" fmla="*/ 97016 h 278873"/>
+              <a:gd name="connsiteX9" fmla="*/ 71443 w 146133"/>
+              <a:gd name="connsiteY9" fmla="*/ 97016 h 278873"/>
+              <a:gd name="connsiteX10" fmla="*/ 0 w 146133"/>
+              <a:gd name="connsiteY10" fmla="*/ 0 h 278873"/>
+              <a:gd name="connsiteX11" fmla="*/ 1 w 146133"/>
+              <a:gd name="connsiteY11" fmla="*/ 0 h 278873"/>
+              <a:gd name="connsiteX12" fmla="*/ 6495 w 146133"/>
+              <a:gd name="connsiteY12" fmla="*/ 19078 h 278873"/>
+              <a:gd name="connsiteX13" fmla="*/ 6495 w 146133"/>
+              <a:gd name="connsiteY13" fmla="*/ 28822 h 278873"/>
+              <a:gd name="connsiteX14" fmla="*/ 146133 w 146133"/>
+              <a:gd name="connsiteY14" fmla="*/ 28822 h 278873"/>
+              <a:gd name="connsiteX15" fmla="*/ 146133 w 146133"/>
+              <a:gd name="connsiteY15" fmla="*/ 246398 h 278873"/>
+              <a:gd name="connsiteX16" fmla="*/ 6495 w 146133"/>
+              <a:gd name="connsiteY16" fmla="*/ 246398 h 278873"/>
+              <a:gd name="connsiteX17" fmla="*/ 6495 w 146133"/>
+              <a:gd name="connsiteY17" fmla="*/ 249791 h 278873"/>
+              <a:gd name="connsiteX18" fmla="*/ 6495 w 146133"/>
+              <a:gd name="connsiteY18" fmla="*/ 262635 h 278873"/>
+              <a:gd name="connsiteX19" fmla="*/ 1 w 146133"/>
+              <a:gd name="connsiteY19" fmla="*/ 278872 h 278873"/>
+              <a:gd name="connsiteX20" fmla="*/ 0 w 146133"/>
+              <a:gd name="connsiteY20" fmla="*/ 278873 h 278873"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX4" y="connsiteY4"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX5" y="connsiteY5"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX6" y="connsiteY6"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX7" y="connsiteY7"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX8" y="connsiteY8"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX9" y="connsiteY9"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX10" y="connsiteY10"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX11" y="connsiteY11"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX12" y="connsiteY12"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX13" y="connsiteY13"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX14" y="connsiteY14"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX15" y="connsiteY15"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX16" y="connsiteY16"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX17" y="connsiteY17"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX18" y="connsiteY18"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX19" y="connsiteY19"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX20" y="connsiteY20"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="146133" h="278873">
+                <a:moveTo>
+                  <a:pt x="71443" y="168460"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="71443" y="178201"/>
+                  <a:pt x="71443" y="178201"/>
+                  <a:pt x="71443" y="178201"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="81185" y="178201"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="81185" y="168460"/>
+                  <a:pt x="81185" y="168460"/>
+                  <a:pt x="81185" y="168460"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="71443" y="168460"/>
+                  <a:pt x="71443" y="168460"/>
+                  <a:pt x="71443" y="168460"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="71443" y="97016"/>
+                </a:moveTo>
+                <a:cubicBezTo>
+                  <a:pt x="71443" y="106758"/>
+                  <a:pt x="71443" y="106758"/>
+                  <a:pt x="71443" y="106758"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="81185" y="106758"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="81185" y="97016"/>
+                  <a:pt x="81185" y="97016"/>
+                  <a:pt x="81185" y="97016"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="71443" y="97016"/>
+                  <a:pt x="71443" y="97016"/>
+                  <a:pt x="71443" y="97016"/>
+                </a:cubicBezTo>
+                <a:close/>
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="1" y="0"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="4060" y="4465"/>
+                  <a:pt x="6495" y="10960"/>
+                  <a:pt x="6495" y="19078"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="6495" y="28822"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="6495" y="28822"/>
+                  <a:pt x="6495" y="28822"/>
+                  <a:pt x="146133" y="28822"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="146133" y="28822"/>
+                  <a:pt x="146133" y="28822"/>
+                  <a:pt x="146133" y="246398"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="146133" y="246398"/>
+                  <a:pt x="146133" y="246398"/>
+                  <a:pt x="6495" y="246398"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="6495" y="249791"/>
+                </a:lnTo>
+                <a:cubicBezTo>
+                  <a:pt x="6495" y="262635"/>
+                  <a:pt x="6495" y="262635"/>
+                  <a:pt x="6495" y="262635"/>
+                </a:cubicBezTo>
+                <a:cubicBezTo>
+                  <a:pt x="6495" y="269130"/>
+                  <a:pt x="4060" y="274813"/>
+                  <a:pt x="1" y="278872"/>
+                </a:cubicBezTo>
+                <a:lnTo>
+                  <a:pt x="0" y="278873"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:srgbClr val="DCDCDC"/>
+          </a:solidFill>
+          <a:ln w="19645" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr">
+            <a:noAutofit/>
+          </a:bodyPr>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914192" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="282828"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Segoe UI"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="204" name="Freeform: Shape 53">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F387CE7F-000E-5A3E-A2AC-364ECEC65E8F}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5918786" y="2870985"/>
+            <a:ext cx="32474" cy="32475"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 19954"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 19954"/>
+              <a:gd name="connsiteX1" fmla="*/ 25940 w 19954"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 19954"/>
+              <a:gd name="connsiteX2" fmla="*/ 25940 w 19954"/>
+              <a:gd name="connsiteY2" fmla="*/ 25940 h 19954"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 19954"/>
+              <a:gd name="connsiteY3" fmla="*/ 25940 h 19954"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="19954" h="19954">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="25940" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="25940" y="25940"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="25940"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19645" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914192" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="282828"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Segoe UI"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="205" name="Freeform: Shape 54">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E342D8F-20FA-FA52-6139-D072332CC4F2}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="5918793" y="2958667"/>
+            <a:ext cx="32474" cy="32475"/>
+          </a:xfrm>
+          <a:custGeom>
+            <a:avLst/>
+            <a:gdLst>
+              <a:gd name="connsiteX0" fmla="*/ 0 w 19954"/>
+              <a:gd name="connsiteY0" fmla="*/ 0 h 19954"/>
+              <a:gd name="connsiteX1" fmla="*/ 25940 w 19954"/>
+              <a:gd name="connsiteY1" fmla="*/ 0 h 19954"/>
+              <a:gd name="connsiteX2" fmla="*/ 25940 w 19954"/>
+              <a:gd name="connsiteY2" fmla="*/ 25940 h 19954"/>
+              <a:gd name="connsiteX3" fmla="*/ 0 w 19954"/>
+              <a:gd name="connsiteY3" fmla="*/ 25940 h 19954"/>
+            </a:gdLst>
+            <a:ahLst/>
+            <a:cxnLst>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX0" y="connsiteY0"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX1" y="connsiteY1"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX2" y="connsiteY2"/>
+              </a:cxn>
+              <a:cxn ang="0">
+                <a:pos x="connsiteX3" y="connsiteY3"/>
+              </a:cxn>
+            </a:cxnLst>
+            <a:rect l="l" t="t" r="r" b="b"/>
+            <a:pathLst>
+              <a:path w="19954" h="19954">
+                <a:moveTo>
+                  <a:pt x="0" y="0"/>
+                </a:moveTo>
+                <a:lnTo>
+                  <a:pt x="25940" y="0"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="25940" y="25940"/>
+                </a:lnTo>
+                <a:lnTo>
+                  <a:pt x="0" y="25940"/>
+                </a:lnTo>
+                <a:close/>
+              </a:path>
+            </a:pathLst>
+          </a:custGeom>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
+          <a:ln w="19645" cap="flat">
+            <a:noFill/>
+            <a:prstDash val="solid"/>
+            <a:miter/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr wrap="square" rtlCol="0" anchor="ctr"/>
+          <a:lstStyle>
+            <a:defPPr>
+              <a:defRPr lang="en-US"/>
+            </a:defPPr>
+            <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl1pPr>
+            <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl2pPr>
+            <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl3pPr>
+            <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl4pPr>
+            <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl5pPr>
+            <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl6pPr>
+            <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl7pPr>
+            <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl8pPr>
+            <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+              <a:defRPr sz="1800" kern="1200">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:lvl9pPr>
+          </a:lstStyle>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914192" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr/>
+            </a:pPr>
+            <a:endParaRPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="282828"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="Segoe UI"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:endParaRPr>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>120315</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586917</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>614000</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="207" name="biometrics" title="Icon of the Windows Hello logo">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D78F73BF-2DA3-65C3-13DE-B29515FCEC91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeAspect="1" noEditPoints="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5855368" y="15788105"/>
+          <a:ext cx="466602" cy="360000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="T0" fmla="*/ 99 w 334"/>
+            <a:gd name="T1" fmla="*/ 175 h 242"/>
+            <a:gd name="T2" fmla="*/ 167 w 334"/>
+            <a:gd name="T3" fmla="*/ 107 h 242"/>
+            <a:gd name="T4" fmla="*/ 235 w 334"/>
+            <a:gd name="T5" fmla="*/ 175 h 242"/>
+            <a:gd name="T6" fmla="*/ 167 w 334"/>
+            <a:gd name="T7" fmla="*/ 242 h 242"/>
+            <a:gd name="T8" fmla="*/ 99 w 334"/>
+            <a:gd name="T9" fmla="*/ 175 h 242"/>
+            <a:gd name="T10" fmla="*/ 334 w 334"/>
+            <a:gd name="T11" fmla="*/ 125 h 242"/>
+            <a:gd name="T12" fmla="*/ 167 w 334"/>
+            <a:gd name="T13" fmla="*/ 0 h 242"/>
+            <a:gd name="T14" fmla="*/ 0 w 334"/>
+            <a:gd name="T15" fmla="*/ 125 h 242"/>
+            <a:gd name="T16" fmla="*/ 35 w 334"/>
+            <a:gd name="T17" fmla="*/ 135 h 242"/>
+            <a:gd name="T18" fmla="*/ 167 w 334"/>
+            <a:gd name="T19" fmla="*/ 37 h 242"/>
+            <a:gd name="T20" fmla="*/ 298 w 334"/>
+            <a:gd name="T21" fmla="*/ 134 h 242"/>
+            <a:gd name="T22" fmla="*/ 334 w 334"/>
+            <a:gd name="T23" fmla="*/ 125 h 242"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="T0" y="T1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T2" y="T3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T4" y="T5"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T6" y="T7"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T8" y="T9"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T10" y="T11"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T12" y="T13"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T14" y="T15"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T16" y="T17"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T18" y="T19"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T20" y="T21"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="T22" y="T23"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="0" t="0" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="334" h="242">
+              <a:moveTo>
+                <a:pt x="99" y="175"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="99" y="137"/>
+                <a:pt x="130" y="107"/>
+                <a:pt x="167" y="107"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="204" y="107"/>
+                <a:pt x="235" y="137"/>
+                <a:pt x="235" y="175"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="235" y="212"/>
+                <a:pt x="204" y="242"/>
+                <a:pt x="167" y="242"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="130" y="242"/>
+                <a:pt x="99" y="212"/>
+                <a:pt x="99" y="175"/>
+              </a:cubicBezTo>
+              <a:close/>
+              <a:moveTo>
+                <a:pt x="334" y="125"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="313" y="53"/>
+                <a:pt x="246" y="0"/>
+                <a:pt x="167" y="0"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="88" y="0"/>
+                <a:pt x="21" y="53"/>
+                <a:pt x="0" y="125"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="35" y="135"/>
+                <a:pt x="35" y="135"/>
+                <a:pt x="35" y="135"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="52" y="78"/>
+                <a:pt x="105" y="37"/>
+                <a:pt x="167" y="37"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="229" y="37"/>
+                <a:pt x="281" y="78"/>
+                <a:pt x="298" y="134"/>
+              </a:cubicBezTo>
+              <a:lnTo>
+                <a:pt x="334" y="125"/>
+              </a:lnTo>
+              <a:close/>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1"/>
+        </a:solidFill>
+        <a:ln w="15875" cap="sq">
+          <a:noFill/>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vert="horz" wrap="square" lIns="89630" tIns="44814" rIns="89630" bIns="44814" numCol="1" anchor="t" anchorCtr="0" compatLnSpc="1">
+          <a:prstTxWarp prst="textNoShape">
+            <a:avLst/>
+          </a:prstTxWarp>
+        </a:bodyPr>
+        <a:lstStyle>
+          <a:defPPr>
+            <a:defRPr lang="en-US"/>
+          </a:defPPr>
+          <a:lvl1pPr marL="0" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" algn="l" defTabSz="457200" rtl="0" eaLnBrk="1" latinLnBrk="0" hangingPunct="1">
+            <a:defRPr sz="1800" kern="1200">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914192" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr kumimoji="0" lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="none" spc="0" normalizeH="0" baseline="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:gradFill>
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="505050"/>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="505050"/>
+                </a:gs>
+              </a:gsLst>
+            </a:gradFill>
+            <a:effectLst/>
+            <a:uLnTx/>
+            <a:uFillTx/>
+            <a:latin typeface="Segoe UI"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>187156</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>240631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>583156</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>636631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="208" name="Graphic 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF014FD4-85EC-8CED-5DDB-E38335F360D5}"/>
+            </a:ext>
+            <a:ext uri="{C183D7F6-B498-43B3-948B-1728B52AA6E4}">
+              <adec:decorative xmlns:adec="http://schemas.microsoft.com/office/drawing/2017/decorative" val="1"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId90"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10119893" y="15774736"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>173786</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>240631</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>569786</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>636631</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="209" name="Graphic 208">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FF2BEBA7-2548-C61A-6F97-3482D12DCE28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId92"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12205365" y="15774736"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66841</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>213895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>559474</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>666421</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="212" name="Group 211">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{878F0182-413F-B521-94AC-40C32652D209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16376315" y="15748000"/>
+          <a:ext cx="492633" cy="452526"/>
+          <a:chOff x="16376315" y="15748000"/>
+          <a:chExt cx="492633" cy="452526"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="210" name="Graphic 209">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FDF3823-9B93-4E0C-C30E-AB5BE218B377}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16376315" y="15748000"/>
+            <a:ext cx="457412" cy="432000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="211" name="Graphic 210">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F509001-3A8C-B245-B0EA-653D2E72CEF3}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16616948" y="15948526"/>
+            <a:ext cx="252000" cy="252000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>147052</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>213893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>604252</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>671093</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="213" name="Graphic 212">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE1B02D-E131-8C1C-1507-990FF348AF70}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId94"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7980947" y="17392314"/>
+          <a:ext cx="457200" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>173789</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>227263</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>569789</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>623263</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="214" name="Graphic 213">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{807CB2C7-1C07-724B-8606-7EB4CDEEFCF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId96"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5908842" y="17405684"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133684</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>240633</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>529684</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>636633</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="215" name="Graphic 214">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4F5AD0D-59F0-6952-189D-AC901658E768}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId98"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12165263" y="19063370"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>187157</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>254001</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>547157</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>613294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="216" name="Graphic 215">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEB4FAF3-E3CE-B34D-8DB6-CD12AA7BD6E7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5922210" y="19076738"/>
+          <a:ext cx="360000" cy="359293"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213894</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>253997</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>694399</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>761237</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="217" name="Group 216">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0CD9394-0A64-9343-97D2-5C446A5D1E0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="8047789" y="19076734"/>
+          <a:ext cx="480505" cy="507240"/>
+          <a:chOff x="16456525" y="9250947"/>
+          <a:chExt cx="480505" cy="507240"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="218" name="Graphic 217">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FFFD18B-8B65-6FC2-F56E-0E44AE5203CB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16456525" y="9250947"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="219" name="Graphic 218">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D24E9A65-B230-5F5C-47D4-F5C3322AFF6A}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="16649030" y="9470187"/>
+            <a:ext cx="288000" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>213893</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>280736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>573893</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>640736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="220" name="Graphic 219">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884235DF-7611-FB40-9103-CB96B3EFCFD5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10146630" y="19103473"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>160421</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>213895</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>595474</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>702422</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="221" name="Group 220">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C91D7D5-A951-4743-85B9-AB5F4437E724}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="16469895" y="19036632"/>
+          <a:ext cx="435053" cy="488527"/>
+          <a:chOff x="18381577" y="9237577"/>
+          <a:chExt cx="435053" cy="488527"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="222" name="Graphic 221">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BE4C3AE-3B3C-CE26-B736-D270DD6C0F95}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18381577" y="9237577"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="223" name="Graphic 222">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D236F1-064F-06D1-433D-339E7CDBD2E5}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="18528630" y="9438104"/>
+            <a:ext cx="288000" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -8922,9 +11868,9 @@
   </sheetPr>
   <dimension ref="A1:AK149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G107" sqref="G107"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -9093,27 +12039,27 @@
       <c r="C4" s="23"/>
       <c r="D4" s="23"/>
       <c r="E4" s="23"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="30"/>
-      <c r="J4" s="39"/>
-      <c r="K4" s="39"/>
-      <c r="L4" s="39"/>
-      <c r="M4" s="39"/>
-      <c r="N4" s="39"/>
-      <c r="O4" s="39"/>
-      <c r="P4" s="39"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="40"/>
+      <c r="L4" s="40"/>
+      <c r="M4" s="40"/>
+      <c r="N4" s="40"/>
+      <c r="O4" s="40"/>
+      <c r="P4" s="40"/>
       <c r="Q4" s="31"/>
       <c r="R4" s="31"/>
       <c r="S4" s="31"/>
       <c r="T4" s="31"/>
       <c r="U4" s="31"/>
       <c r="V4" s="30"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="39"/>
-      <c r="Y4" s="39"/>
-      <c r="Z4" s="39"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="40"/>
+      <c r="Y4" s="40"/>
+      <c r="Z4" s="40"/>
       <c r="AA4" s="23"/>
     </row>
     <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
@@ -9305,8 +12251,8 @@
       <c r="L13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="33" t="s">
-        <v>14</v>
+      <c r="N13" s="34" t="s">
+        <v>88</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>20</v>
@@ -9438,9 +12384,7 @@
       <c r="R19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="T19" s="34" t="s">
-        <v>30</v>
-      </c>
+      <c r="T19"/>
       <c r="V19" s="2"/>
     </row>
     <row r="20" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9463,9 +12407,6 @@
         <v>8</v>
       </c>
       <c r="R20" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="T20" s="22" t="s">
         <v>8</v>
       </c>
       <c r="V20" s="2"/>
@@ -9522,10 +12463,10 @@
       </c>
       <c r="V23" s="2"/>
       <c r="X23" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="Z23" s="34" t="s">
         <v>41</v>
-      </c>
-      <c r="Z23" s="34" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9578,13 +12519,13 @@
       </c>
       <c r="J26" s="2"/>
       <c r="L26" s="7" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>37</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="Q26" s="10"/>
       <c r="R26" s="11" t="s">
@@ -9595,7 +12536,7 @@
       <c r="U26" s="10"/>
       <c r="V26" s="2"/>
       <c r="X26" s="34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9647,19 +12588,19 @@
       <c r="G29"/>
       <c r="J29" s="2"/>
       <c r="L29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="P29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="R29" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="T29" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="T29" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="V29" s="2"/>
     </row>
@@ -9705,13 +12646,13 @@
       <c r="E32" s="2"/>
       <c r="J32" s="2"/>
       <c r="L32" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="N32" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="N32" s="5" t="s">
+      <c r="P32" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="R32"/>
       <c r="S32"/>
@@ -9757,20 +12698,20 @@
       <c r="G35"/>
       <c r="J35" s="2"/>
       <c r="L35" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N35" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="P35" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="N35" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" s="5" t="s">
+      <c r="R35" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="R35" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="V35" s="2"/>
       <c r="X35" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9816,12 +12757,11 @@
       <c r="G38"/>
       <c r="J38" s="2"/>
       <c r="L38" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="N38" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P38"/>
       <c r="U38" s="10"/>
       <c r="V38" s="2"/>
     </row>
@@ -9862,20 +12802,20 @@
       <c r="G41"/>
       <c r="J41" s="2"/>
       <c r="L41" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="R41" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="V41" s="2"/>
       <c r="X41" s="11" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9928,21 +12868,21 @@
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="G45" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J45" s="2"/>
       <c r="L45" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N45" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P45" s="5" t="s">
         <v>65</v>
-      </c>
-      <c r="N45" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>67</v>
       </c>
       <c r="Q45"/>
       <c r="R45" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="V45" s="2"/>
     </row>
@@ -9992,10 +12932,10 @@
       <c r="G48"/>
       <c r="J48" s="2"/>
       <c r="L48" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="N48" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="R48"/>
       <c r="V48" s="2"/>
@@ -10042,14 +12982,14 @@
       <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="G52" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J52" s="2"/>
       <c r="L52" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="N52" s="11" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="P52"/>
       <c r="R52"/>
@@ -10091,14 +13031,14 @@
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="G55" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J55" s="2"/>
       <c r="L55" s="11" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
@@ -10142,11 +13082,11 @@
       <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="G58" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="J58" s="2"/>
       <c r="L58" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -10189,14 +13129,14 @@
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="G61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="J61" s="2"/>
+      <c r="L61" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="N61" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="J61" s="2"/>
-      <c r="L61" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
@@ -10242,7 +13182,7 @@
       <c r="G64"/>
       <c r="J64" s="2"/>
       <c r="L64" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -10288,17 +13228,17 @@
       <c r="E67" s="2"/>
       <c r="F67"/>
       <c r="G67" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="J67" s="2"/>
       <c r="L67" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N67" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="P67" s="7" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="R67"/>
       <c r="V67" s="2"/>
@@ -10342,13 +13282,13 @@
       <c r="E70" s="2"/>
       <c r="J70" s="2"/>
       <c r="L70" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="N70" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="P70" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="N70" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>88</v>
       </c>
       <c r="R70"/>
       <c r="V70" s="2"/>
@@ -12100,428 +15040,370 @@
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:K24">
-    <cfRule type="cellIs" dxfId="126" priority="89" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="118" priority="89" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="125" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="117" priority="90" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="124" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="116" priority="91" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="123" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="115" priority="92" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="122" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="114" priority="93" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="121" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="113" priority="94" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="120" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="112" priority="95" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="119" priority="96" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="111" priority="96" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A45:O46 S45:AA46 A47:AA47 Q48:AA49 A48:O49 A50:AA50 A54:AA54 A55:O56 S55:AA56 A52:O53 Q52:AA53 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 A66:AA72 AA73:AA114 A115:K206 S115:AA206 L123:R214">
-    <cfRule type="cellIs" dxfId="118" priority="347" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A45:O46 A66:AA72 A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 AA73:AA114 A115:K206 S115:AA206 L123:R214 N14 P14:Q14">
+    <cfRule type="cellIs" dxfId="110" priority="344" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A45:O46 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 A66:AA72 AA73:AA114 A115:K206 S115:AA206 L123:R214 N14 P14:Q14">
+    <cfRule type="cellIs" dxfId="109" priority="347" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="348" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="348" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="349" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="350" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="350" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="351" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="352" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="352" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="353" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="353" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A45:O46 S45:AA46 A47:AA47 Q48:AA49 A48:O49 A50:AA50 A54:AA54 A55:O56 S55:AA56 A52:O53 Q52:AA53 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 A66:AA72 AA73:AA114 A115:K206 S115:AA206 L123:R214">
-    <cfRule type="cellIs" dxfId="111" priority="344" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A50:AA51">
+    <cfRule type="cellIs" dxfId="102" priority="1" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="101" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="99" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="98" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="95" priority="8" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46 G68">
-    <cfRule type="cellIs" dxfId="110" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="113" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="114" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="114" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="92" priority="115" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="116" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="116" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="117" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="117" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="118" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="118" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="119" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="103" priority="81" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="102" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="83" priority="85" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="88" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="88" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:Q20">
-    <cfRule type="cellIs" dxfId="95" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="79" priority="97" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="94" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="98" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="99" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="100" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="101" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="102" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="103" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="104" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N14">
-    <cfRule type="cellIs" dxfId="87" priority="105" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="106" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="107" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="108" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="109" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="110" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="111" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="112" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="72" priority="104" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="cellIs" dxfId="79" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="74" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="76" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="76" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="77" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="77" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="78" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="79" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="79" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="80" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="cellIs" dxfId="71" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="67" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="60" priority="68" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="70" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="71" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P45:P46">
+    <cfRule type="cellIs" dxfId="55" priority="17" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="18" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="50" priority="22" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="49" priority="23" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="48" priority="24" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" dxfId="63" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="57" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="58" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="58" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="59" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="60" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="60" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="61" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="61" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="62" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="62" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="63" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="63" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="64" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="64" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T20">
-    <cfRule type="cellIs" dxfId="55" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="R45:AA46">
+    <cfRule type="cellIs" dxfId="39" priority="9" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="11" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="36" priority="12" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="29" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="13" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="30" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="14" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="31" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="32" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="47" priority="49" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="49" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="50" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="51" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="51" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="52" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="53" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="53" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="54" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="54" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="55" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="55" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="56" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="56" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="39" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="33" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="34" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="36" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="36" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="37" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="37" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="38" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="38" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="39" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="39" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="40" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z24">
-    <cfRule type="cellIs" dxfId="31" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="41" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="42" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="43" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="44" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="45" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="45" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="46" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="46" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="47" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="47" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="48" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="48" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45:P46">
-    <cfRule type="cellIs" dxfId="23" priority="18" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="19" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="20" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="21" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="22" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="23" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="24" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P45:P46">
-    <cfRule type="cellIs" dxfId="16" priority="17" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R45:R46">
-    <cfRule type="cellIs" dxfId="15" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="12" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="13" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="14" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="15" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="16" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R45:R46">
-    <cfRule type="cellIs" dxfId="8" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:AA51">
-    <cfRule type="cellIs" dxfId="7" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A51:AA51">
-    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P24 L33 T17 N11 N14 G14 G17 G11 L14 N20 P20 S14 U14 P27:U27 L20 T20 R24 G27 L27 N27 L36 T30 R20 N33 P33 G20:G21 P11:U11 R30 L39 N56 U39 L49 G49 G46 N39 P42 X36 N42 L42 R42 X42 L46 L53 N46 N49 G56 N53 L56 R46 X24 U59 N68 N71 G59 G53 L62 L59 N62 G62 P36 G68 R36 Z24 P68 L65 P71 P46 X27 L30 N30 P30 N36 L68 L71 P14:Q14 L11 L17 N17 P17 R17 G24 L24 N24" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P24 L33 T17 N11 G14 G17 G11 L14 N20 P20 S14 U14 P27:U27 L20 P14:Q14 R24 G27 L27 N27 L36 T30 R20 N33 P33 G20:G21 P11:U11 R30 L39 N56 U39 L49 G49 G46 N39 P42 X36 N42 L42 R42 X42 L46 L53 N46 N49 G56 N53 L56 R46 X24 U59 N68 N71 G59 G53 L62 L59 N62 G62 P36 G68 R36 Z24 P68 L65 P71 P46 X27 L30 N30 P30 N36 L68 L71 L11 L17 N17 P17 R17 G24 L24 N24 N14" xr:uid="{06DFEDCB-B92D-9940-B342-42CB13168E9F}">
       <formula1>Status</formula1>
     </dataValidation>
   </dataValidations>

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{048EA98A-E6BF-7C42-A783-2AC00C9B6FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4E0092-4766-464F-8B63-A04B2E1D505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Workshop-Devices" sheetId="1" r:id="rId1"/>
+    <sheet name="Workshop-Identity" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ListStatus">'Workshop-Devices'!$G$92:$G$99</definedName>
-    <definedName name="Status">'Workshop-Devices'!$AD$2:$AK$2</definedName>
+    <definedName name="ListStatus">'Workshop-Identity'!$G$92:$G$99</definedName>
+    <definedName name="Status">'Workshop-Identity'!$AD$2:$AK$2</definedName>
     <definedName name="StBlocked">#REF!</definedName>
     <definedName name="StCompleted">#REF!</definedName>
     <definedName name="StInProgress">#REF!</definedName>
@@ -26,7 +26,7 @@
     <definedName name="StPlanned">#REF!</definedName>
     <definedName name="StThirdParty">#REF!</definedName>
     <definedName name="StWillNotPursue">#REF!</definedName>
-    <definedName name="WorkshopData">'Workshop-Devices'!$A$1:$AA$211</definedName>
+    <definedName name="WorkshopData">'Workshop-Identity'!$A$1:$AA$211</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -219,9 +219,6 @@
     <t>Remove password as credential</t>
   </si>
   <si>
-    <t>Migrate to modern tools for collab (Teams, SharePoint, OneDrive,  Viva)</t>
-  </si>
-  <si>
     <t>Migrate distributions lists to Microsoft 365 Teams &amp; Groups</t>
   </si>
   <si>
@@ -322,6 +319,9 @@
   </si>
   <si>
     <t>Change provisioning flow of existing groups to AAD</t>
+  </si>
+  <si>
+    <t>Migrate to modern tools for collab (OneDrive, Teams, SharePoint)</t>
   </si>
 </sst>
 </file>
@@ -709,15 +709,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="WorkItem" xfId="1" xr:uid="{0F6335E5-33B1-7644-B498-B1E7394136F4}"/>
   </cellStyles>
-  <dxfs count="119">
+  <dxfs count="111">
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -737,17 +737,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -801,10 +790,40 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -816,6 +835,25 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -834,7 +872,7 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -842,7 +880,48 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -870,12 +949,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -883,7 +962,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -899,40 +997,21 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -949,12 +1028,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
+          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -962,7 +1041,26 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -978,51 +1076,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1034,458 +1091,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1659,10 +1264,40 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1678,40 +1313,21 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <font>
-        <color theme="1"/>
+        <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1812,6 +1428,232 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
@@ -1881,6 +1723,85 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3112,229 +3033,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Graphic 99">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781578" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="Graphic 117">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781578" y="25222787"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="Graphic 135">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7781578" y="31754216"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>25400</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>317500</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>215900</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="Rounded Rectangle 144">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="349956" y="19522722"/>
-          <a:ext cx="1855611" cy="1495778"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 14972"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="15000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>MDM</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1400" b="1" i="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:latin typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Segoe UI Semibold" panose="020B0502040204020203" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>Android devices</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3345,8 +3043,8 @@
     <xdr:to>
       <xdr:col>26</xdr:col>
       <xdr:colOff>480681</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>167472</xdr:rowOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3361,8 +3059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="293356" y="23886466"/>
-          <a:ext cx="20297984" cy="11380457"/>
+          <a:off x="293356" y="23982623"/>
+          <a:ext cx="20291425" cy="11640877"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
           <a:avLst>
@@ -3401,411 +3099,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="635000" cy="635000"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="Graphic 146">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="984956" y="18369844"/>
-          <a:ext cx="635000" cy="635000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="Graphic 147">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="20195822"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="Graphic 148">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="18585744"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Graphic 153">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="20227572"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="Graphic 166">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="23473128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="Graphic 167">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="23473128"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="Graphic 168">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7823200" y="25095906"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="Graphic 169">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9939867" y="25095906"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="368300" cy="368300"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="191" name="Graphic 190">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000BF000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2913944" y="32317267"/>
-          <a:ext cx="368300" cy="368300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>19</xdr:col>
@@ -3886,10 +3179,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3936,10 +3229,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId15"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -3986,10 +3279,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4036,10 +3329,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4086,10 +3379,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId21"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4136,10 +3429,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4186,10 +3479,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4504,10 +3797,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4554,10 +3847,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4962,10 +4255,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4985,51 +4278,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Graphic 34">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07DC0573-BFDA-EE4F-90BD-BCC4A57B4147}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="20789691"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -5121,96 +4369,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Graphic 47">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{169704E3-C88B-7B49-9FCC-2540DE17E6C9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5812134" y="22408592"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Graphic 48">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E75F2929-5A86-754F-85E5-8380A315F65F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5812134" y="22408592"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -5238,10 +4396,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5252,56 +4410,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5875494" y="22357582"/>
-          <a:ext cx="432638" cy="432638"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>208223</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>585037</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>640861</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Graphic 57">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BB6D4CD-C102-5B4B-B0FD-FC430B4F0096}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7995696" y="22356465"/>
           <a:ext cx="432638" cy="432638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5413,10 +4521,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5436,96 +4544,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Graphic 63">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D32FBF8-CF21-F444-8277-38D9B5432C24}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2896577" y="28376685"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>241300</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="342900" cy="342900"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Graphic 69">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B325728-8C10-154E-8E6F-653AD0EA3D3D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId17"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2896577" y="28376685"/>
-          <a:ext cx="342900" cy="342900"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5617,96 +4635,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Graphic 73">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{18CA1C42-3A25-3C45-A137-014A2530EEED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="24404306"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Graphic 74">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{900614AF-6FB0-0E46-AECF-EDD352C77105}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="24404306"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5798,51 +4726,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Graphic 87">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7ADB4BF-189C-0F4A-9E76-4978C85D502A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="27642108"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -5934,51 +4817,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Graphic 93">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF815AB9-4162-FC42-84DE-D9D27D103099}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="29261009"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>10</xdr:col>
@@ -6070,51 +4908,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Graphic 95">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{739471AD-A1BD-DD4A-B383-6A18E872EC68}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="30879910"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -6206,141 +4999,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Graphic 97">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B69AD135-36AC-0347-AB39-D439F252AA61}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="32498812"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Graphic 110">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C5C2B31-95EA-E740-8BCE-07AC8D911C96}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7919497" y="32498812"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>260350</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="304800" cy="304800"/>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Graphic 111">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{733CED5F-AE0E-C845-ABC8-49D7CBB5DC16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
-          <a:extLst>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10026859" y="32498812"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
@@ -6368,10 +5026,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId35"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6418,10 +5076,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId43"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId37"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6463,10 +5121,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId45"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId39"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6513,10 +5171,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId41"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6563,10 +5221,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId43"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6613,10 +5271,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId44">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId45"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6663,10 +5321,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId46">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId47"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6713,10 +5371,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId48">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId49"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6813,10 +5471,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6863,10 +5521,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6912,7 +5570,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10085136" y="7227330"/>
+          <a:off x="10096499" y="7147788"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -6932,10 +5590,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -6967,10 +5625,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7017,7 +5675,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3028395" y="3917234"/>
+          <a:off x="3013021" y="3875123"/>
           <a:ext cx="500570" cy="400468"/>
           <a:chOff x="3021103" y="3871659"/>
           <a:chExt cx="500570" cy="400468"/>
@@ -7037,10 +5695,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7072,10 +5730,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7122,7 +5780,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7983985" y="7190387"/>
+          <a:off x="7985990" y="7110845"/>
           <a:ext cx="494453" cy="425182"/>
           <a:chOff x="7977908" y="7112000"/>
           <a:chExt cx="494453" cy="425182"/>
@@ -7142,10 +5800,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7177,10 +5835,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7227,7 +5885,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5850509" y="7190384"/>
+          <a:off x="5843156" y="7110842"/>
           <a:ext cx="450578" cy="450585"/>
           <a:chOff x="5842001" y="7111997"/>
           <a:chExt cx="450578" cy="450585"/>
@@ -7247,10 +5905,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7282,10 +5940,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7333,10 +5991,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId29"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId23"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -7382,7 +6040,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7963203" y="9178514"/>
+          <a:off x="7965208" y="9073572"/>
           <a:ext cx="483226" cy="409089"/>
           <a:chOff x="7963203" y="9178514"/>
           <a:chExt cx="483226" cy="409089"/>
@@ -7402,10 +6060,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -7989,7 +6647,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10090483" y="9184466"/>
+          <a:off x="10101846" y="9079524"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -8009,10 +6667,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8044,10 +6702,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8095,10 +6753,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId62">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId63"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8145,10 +6803,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8195,10 +6853,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8245,10 +6903,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId68">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId69"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8294,7 +6952,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18381577" y="9237577"/>
+          <a:off x="18408314" y="9132635"/>
           <a:ext cx="435053" cy="488527"/>
           <a:chOff x="18381577" y="9237577"/>
           <a:chExt cx="435053" cy="488527"/>
@@ -8314,10 +6972,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8349,10 +7007,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8399,7 +7057,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16469893" y="9237579"/>
+          <a:off x="16492619" y="9132637"/>
           <a:ext cx="480505" cy="507240"/>
           <a:chOff x="16456525" y="9250947"/>
           <a:chExt cx="480505" cy="507240"/>
@@ -8419,10 +7077,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8454,10 +7112,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8504,7 +7162,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16456527" y="10841790"/>
+          <a:off x="16479253" y="10718132"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -8524,10 +7182,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8559,10 +7217,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8610,10 +7268,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId31"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId25"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8660,10 +7318,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId76">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId77"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8710,10 +7368,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8760,10 +7418,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId80">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId74">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId81"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId75"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8810,10 +7468,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId76"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -8859,7 +7517,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10093158" y="14130420"/>
+          <a:off x="10104521" y="13969331"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -8879,10 +7537,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId58">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId52">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId59"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId53"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8914,10 +7572,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -8965,10 +7623,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId77">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId84"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId78"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9015,10 +7673,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId79">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId86"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId80"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9065,10 +7723,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId81">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId82"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -9116,7 +7774,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7954211" y="15821038"/>
+          <a:off x="7956216" y="15641233"/>
           <a:ext cx="507095" cy="301277"/>
           <a:chOff x="5586385" y="2820460"/>
           <a:chExt cx="426564" cy="232916"/>
@@ -10902,13 +9560,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89" cstate="print">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId83" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId90"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId84"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -10955,10 +9613,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId85">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId92"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId86"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11004,7 +9662,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16376315" y="15748000"/>
+          <a:off x="16399041" y="15568195"/>
           <a:ext cx="492633" cy="452526"/>
           <a:chOff x="16376315" y="15748000"/>
           <a:chExt cx="492633" cy="452526"/>
@@ -11024,10 +9682,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId78">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId79"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11059,10 +9717,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId60">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId61"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11110,10 +9768,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId87">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId94"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId88"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11160,10 +9818,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId89">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId96"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId90"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11210,10 +9868,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId98"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId92"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11260,10 +9918,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11309,7 +9967,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8047789" y="19076734"/>
+          <a:off x="8049794" y="18859497"/>
           <a:ext cx="480505" cy="507240"/>
           <a:chOff x="16456525" y="9250947"/>
           <a:chExt cx="480505" cy="507240"/>
@@ -11329,10 +9987,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId33"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId27"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11364,10 +10022,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11415,10 +10073,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId56">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId50">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId57"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId51"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -11464,7 +10122,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16469895" y="19036632"/>
+          <a:off x="16492621" y="18819395"/>
           <a:ext cx="435053" cy="488527"/>
           <a:chOff x="18381577" y="9237577"/>
           <a:chExt cx="435053" cy="488527"/>
@@ -11484,10 +10142,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId19"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11519,10 +10177,10 @@
           </xdr:cNvPicPr>
         </xdr:nvPicPr>
         <xdr:blipFill>
-          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId70">
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId64">
             <a:extLst>
               <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId71"/>
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId65"/>
               </a:ext>
             </a:extLst>
           </a:blip>
@@ -11541,6 +10199,1316 @@
         </xdr:spPr>
       </xdr:pic>
     </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>279400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>499700</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>639400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Graphic 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14363687-79AA-B343-AFCA-EEFF4D2A53A2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId93">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId94"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10083800" y="20891500"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>512400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>588600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="IconGrantHybridJoined">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AD25962-9091-4C47-BA70-747AA8B5CA31}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId96"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="20840700"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>588182</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>668998</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="15" name="Group 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F1B774-BCD0-B745-8422-6B5838352711}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="7937500" y="20840700"/>
+          <a:ext cx="486582" cy="440398"/>
+          <a:chOff x="14743545" y="39681728"/>
+          <a:chExt cx="486582" cy="440398"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="16" name="Graphic 15">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B42EFB31-E356-B2A6-6864-753043C6B67B}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId13"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14743545" y="39681728"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="17" name="IconGrantHybridJoined">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8EBA87E7-950E-A446-7F91-E9C1ECC36565}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId95">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId96"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="14942127" y="39834126"/>
+            <a:ext cx="288000" cy="288000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>534391</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>737592</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="20" name="Group 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B573062-A870-0547-B254-F078040B7834}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="12153900" y="20802600"/>
+          <a:ext cx="420091" cy="547092"/>
+          <a:chOff x="7793181" y="39635545"/>
+          <a:chExt cx="420091" cy="547092"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="21" name="Graphic 20">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16CA221E-8C8B-E09E-721D-B26D7C33DBAB}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId97">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId98"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7793181" y="39635545"/>
+            <a:ext cx="360000" cy="360000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="22" name="Graphic 21">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6CAEDBE-CFE7-74DA-537A-201A5DD4015D}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId54">
+            <a:extLst>
+              <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+                <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId55"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="7943272" y="39912637"/>
+            <a:ext cx="270000" cy="270000"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>534000</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>614400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Graphic 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62E0D5C5-1F5A-1B44-ACBA-8121F5C36FBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId72">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId73"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7988300" y="22491700"/>
+          <a:ext cx="381600" cy="360400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Graphic 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63427ADE-4806-9609-C11A-A26A5B23D2CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId100"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="27736800"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>586500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Graphic 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F6ABB98-B206-B743-ADE7-2E198F15ECD6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId99">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId100"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5918200" y="27736800"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>563200</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>626700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Graphic 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0FA040F-5686-A241-B70C-9D01484CB3B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId66">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId67"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8039100" y="26136600"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>523000</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Graphic 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BBD5EDCB-70EE-F0B0-DA79-FED0AE98EAC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId101">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId102"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7962900" y="24485600"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Graphic 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25E6A309-E77E-023C-C386-1B3E5AB331BD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId103">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId104"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892800" y="26111200"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Graphic 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C41B89D-F64D-EEDA-4CFE-90B84A405AA4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId105">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId106"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="24485600"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>512400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>626700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Graphic 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6714B226-9F15-3D45-8048-A3C911E0EAA8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId76"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2984500" y="26136600"/>
+          <a:ext cx="360000" cy="360000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>573800</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>650000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Graphic 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805B41CA-F871-2EF1-C289-E33A35B9A193}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId107">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId108"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="24498300"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>535700</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>611900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Graphic 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AAD43BE-418B-D479-0B05-C94ACA07132D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId109">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId110"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2971800" y="29337000"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>573800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>624600</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="42" name="Graphic 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8757AE7-E0A3-32FA-1FC6-23846C10BBA6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId111">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId112"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5905500" y="29349700"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>598300</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="43" name="Graphic 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21A066D5-9F7E-8B51-5F7C-563C90E0BD95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId113">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId114"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7950200" y="29362400"/>
+          <a:ext cx="484000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>266700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>662700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="45" name="Graphic 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D9910D3-5FDF-16ED-143C-3BD79AC30500}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId115">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId116"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892800" y="31013400"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>203200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>548400</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>599200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="46" name="Graphic 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62401D18-F8C4-35C2-8F53-B86D70643A22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId117">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId118"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5880100" y="32575500"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>254000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>650000</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="51" name="Graphic 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DA0A016-DD95-3C64-DF75-46DAD9C6321E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId91">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId119"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2997200" y="32626300"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>611900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="52" name="Graphic 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C5CBD98B-D8D5-092D-8056-328E4CE03071}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId120">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId121"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5892800" y="34213800"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>241300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>523000</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>637300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="55" name="Graphic 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E419A82E-7BC5-BEB7-624B-C12579A4E731}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId122">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId123"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10071100" y="34239200"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>535700</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>611900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="56" name="Graphic 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49257F50-0BA9-E018-81E9-648BE88EF0B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId124">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId125"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7975600" y="34213800"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>611900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="60" name="Graphic 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C85CE30-C4BC-7FEF-F43C-53D308301298}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId126">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId127"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8001000" y="32588200"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>215900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>561100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>611900</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="63" name="Graphic 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4F44E3-2E20-75F6-537A-767BC0F55CB2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId128">
+          <a:extLst>
+            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId129"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10109200" y="32588200"/>
+          <a:ext cx="396000" cy="396000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -11868,9 +11836,9 @@
   </sheetPr>
   <dimension ref="A1:AK149"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Z41" sqref="Z41"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="6" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P73" sqref="P73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -12252,7 +12220,7 @@
         <v>16</v>
       </c>
       <c r="N13" s="34" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="P13" s="34" t="s">
         <v>20</v>
@@ -12519,7 +12487,7 @@
       </c>
       <c r="J26" s="2"/>
       <c r="L26" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>37</v>
@@ -12757,10 +12725,10 @@
       <c r="G38"/>
       <c r="J38" s="2"/>
       <c r="L38" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="N38" s="7" t="s">
         <v>56</v>
-      </c>
-      <c r="N38" s="7" t="s">
-        <v>57</v>
       </c>
       <c r="U38" s="10"/>
       <c r="V38" s="2"/>
@@ -12802,20 +12770,20 @@
       <c r="G41"/>
       <c r="J41" s="2"/>
       <c r="L41" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="N41" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="N41" s="5" t="s">
+      <c r="P41" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="P41" s="5" t="s">
+      <c r="R41" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="R41" s="7" t="s">
-        <v>61</v>
       </c>
       <c r="V41" s="2"/>
       <c r="X41" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="42" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -12868,21 +12836,21 @@
       <c r="D45" s="4"/>
       <c r="E45" s="2"/>
       <c r="G45" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J45" s="2"/>
       <c r="L45" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N45" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N45" s="7" t="s">
+      <c r="P45" s="5" t="s">
         <v>64</v>
-      </c>
-      <c r="P45" s="5" t="s">
-        <v>65</v>
       </c>
       <c r="Q45"/>
       <c r="R45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V45" s="2"/>
     </row>
@@ -12932,10 +12900,10 @@
       <c r="G48"/>
       <c r="J48" s="2"/>
       <c r="L48" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N48" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="N48" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="R48"/>
       <c r="V48" s="2"/>
@@ -12982,14 +12950,14 @@
       <c r="D52" s="4"/>
       <c r="E52" s="2"/>
       <c r="G52" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J52" s="2"/>
       <c r="L52" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N52" s="11" t="s">
         <v>71</v>
-      </c>
-      <c r="N52" s="11" t="s">
-        <v>72</v>
       </c>
       <c r="P52"/>
       <c r="R52"/>
@@ -13031,14 +12999,14 @@
       <c r="D55" s="4"/>
       <c r="E55" s="2"/>
       <c r="G55" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J55" s="2"/>
       <c r="L55" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N55" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="N55" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="P55"/>
       <c r="Q55"/>
@@ -13082,11 +13050,11 @@
       <c r="D58" s="4"/>
       <c r="E58" s="2"/>
       <c r="G58" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J58" s="2"/>
       <c r="L58" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N58"/>
       <c r="O58"/>
@@ -13129,14 +13097,14 @@
       <c r="D61" s="4"/>
       <c r="E61" s="2"/>
       <c r="G61" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J61" s="2"/>
       <c r="L61" s="38" t="s">
+        <v>77</v>
+      </c>
+      <c r="N61" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="N61" s="7" t="s">
-        <v>79</v>
       </c>
       <c r="P61"/>
       <c r="Q61"/>
@@ -13182,7 +13150,7 @@
       <c r="G64"/>
       <c r="J64" s="2"/>
       <c r="L64" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N64"/>
       <c r="O64"/>
@@ -13228,17 +13196,17 @@
       <c r="E67" s="2"/>
       <c r="F67"/>
       <c r="G67" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J67" s="2"/>
       <c r="L67" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="N67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="N67" s="7" t="s">
-        <v>83</v>
-      </c>
       <c r="P67" s="7" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R67"/>
       <c r="V67" s="2"/>
@@ -13282,13 +13250,13 @@
       <c r="E70" s="2"/>
       <c r="J70" s="2"/>
       <c r="L70" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="N70" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="N70" s="7" t="s">
+      <c r="P70" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P70" s="7" t="s">
-        <v>86</v>
       </c>
       <c r="R70"/>
       <c r="V70" s="2"/>
@@ -15040,288 +15008,288 @@
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:K24">
-    <cfRule type="cellIs" dxfId="118" priority="89" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="110" priority="96" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="117" priority="90" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="109" priority="90" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="116" priority="91" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="108" priority="91" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="115" priority="92" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="107" priority="92" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="114" priority="93" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="106" priority="93" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="113" priority="94" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="105" priority="94" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="112" priority="95" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="104" priority="95" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="111" priority="96" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A45:O46 A66:AA72 A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 AA73:AA114 A115:K206 S115:AA206 L123:R214 N14 P14:Q14">
-    <cfRule type="cellIs" dxfId="110" priority="344" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="103" priority="89" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A45:O46 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 A66:AA72 AA73:AA114 A115:K206 S115:AA206 L123:R214 N14 P14:Q14">
-    <cfRule type="cellIs" dxfId="109" priority="347" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="A45:O46 A66:AA72 A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 N14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 AA73:AA114 A115:K206 S115:AA206 L123:R214">
+    <cfRule type="cellIs" dxfId="102" priority="344" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 N14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A45:O46 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 A66:AA72 AA73:AA114 A115:K206 S115:AA206 L123:R214">
+    <cfRule type="cellIs" dxfId="101" priority="347" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="348" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="100" priority="348" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="107" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="99" priority="349" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="350" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="350" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="351" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="97" priority="351" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="352" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="96" priority="352" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="353" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="95" priority="353" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:AA51">
-    <cfRule type="cellIs" dxfId="102" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="94" priority="1" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="101" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="2" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="91" priority="3" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="4" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="90" priority="4" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="5" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="89" priority="5" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="6" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="88" priority="6" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="87" priority="7" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="8" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46 G68">
-    <cfRule type="cellIs" dxfId="94" priority="113" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="86" priority="113" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="114" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="85" priority="119" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="115" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="118" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="117" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="116" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="115" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="116" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="117" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="118" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="119" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="80" priority="114" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
-    <cfRule type="cellIs" dxfId="87" priority="81" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="79" priority="88" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="83" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="76" priority="84" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="85" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="75" priority="85" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="86" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="86" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="87" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="73" priority="87" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="88" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="72" priority="81" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:Q20">
-    <cfRule type="cellIs" dxfId="79" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="97" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="70" priority="98" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="99" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="69" priority="99" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="100" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="68" priority="100" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="101" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="101" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="102" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="66" priority="102" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="103" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="65" priority="103" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="104" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="104" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="cellIs" dxfId="71" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="73" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="74" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="62" priority="80" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="75" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="61" priority="79" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="78" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="59" priority="77" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="76" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="75" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="76" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="77" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="78" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="79" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="80" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="56" priority="74" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="cellIs" dxfId="63" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="72" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="65" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="66" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="67" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="68" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="69" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="69" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="70" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="71" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="72" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P45:P46">
-    <cfRule type="cellIs" dxfId="55" priority="17" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="47" priority="17" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="18" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="19" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="20" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="21" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="22" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="23" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="24" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="24" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" dxfId="47" priority="57" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="57" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="58" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="38" priority="64" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="59" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="63" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="62" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="60" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="59" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="60" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="61" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="62" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="63" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="64" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="32" priority="58" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R45:AA46">
-    <cfRule type="cellIs" dxfId="39" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="11" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="12" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="13" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="14" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="15" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="16" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
@@ -15331,66 +15299,66 @@
     <cfRule type="cellIs" dxfId="22" priority="50" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="51" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="21" priority="55" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="52" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="54" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="56" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="52" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="53" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="54" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="55" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="56" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="16" priority="51" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="15" priority="33" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="37" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="14" priority="40" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="39" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="38" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="33" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="34" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="10" priority="36" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="35" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="36" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="37" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="38" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="39" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="40" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="8" priority="34" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z24">
-    <cfRule type="cellIs" dxfId="7" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="48" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="41" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="42" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="42" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="43" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="43" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="44" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="45" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="2" priority="46" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
@@ -15398,8 +15366,8 @@
     <cfRule type="cellIs" dxfId="1" priority="47" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="48" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="45" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
+++ b/src/documentgenerator/Assets/ZeroTrustWorkshopIdentity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/merill/Projects/zt/src/documentgenerator/Assets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Code\zerotrustassessment\src\documentgenerator\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4E0092-4766-464F-8B63-A04B2E1D505E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F9CC795-253C-4B90-AB87-5D81EED59A64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{040FA455-BBEF-FA42-AABB-160C20B905DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Workshop-Identity" sheetId="1" r:id="rId1"/>
@@ -328,7 +328,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -456,6 +456,24 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="14">
@@ -598,7 +616,7 @@
       <alignment horizontal="left" vertical="center" indent="6"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -704,6 +722,15 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -712,80 +739,12 @@
   <dxfs count="111">
     <dxf>
       <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color theme="0"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -818,12 +777,12 @@
     </dxf>
     <dxf>
       <font>
-        <color theme="0"/>
+        <color rgb="FFFF0000"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -854,96 +813,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1027,6 +896,107 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -1065,6 +1035,33 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color theme="1"/>
       </font>
@@ -1076,10 +1073,51 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1174,47 +1212,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
@@ -1254,6 +1251,25 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="0"/>
       </font>
       <fill>
@@ -1265,12 +1281,170 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1303,6 +1477,28 @@
     </dxf>
     <dxf>
       <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color theme="1"/>
       </font>
       <fill>
@@ -1328,6 +1524,74 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFB6A7D8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74D6FE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFDBD2E9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1411,24 +1675,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFD6FD78"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1436,7 +1686,18 @@
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
+          <bgColor rgb="FF74FC79"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FFF7F3DC"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1452,29 +1713,10 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
+          <bgColor rgb="FFB6A7D8"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1497,6 +1739,39 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor rgb="FF0096FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor auto="1"/>
+          <bgColor theme="1"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1554,254 +1829,6 @@
         <patternFill patternType="solid">
           <fgColor auto="1"/>
           <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFB6A7D8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFDBD2E9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFF7F3DC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74FC79"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FFD6FD78"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF74D6FE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor auto="1"/>
-          <bgColor rgb="FF0096FF"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2489,59 +2516,6 @@
         <a:xfrm flipH="1">
           <a:off x="4695720" y="628247"/>
           <a:ext cx="604796" cy="509234"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>1912786</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>496225</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>234051</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>352444</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Graphic 65" descr="Caret Left with solid fill">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="15874319" y="623225"/>
-          <a:ext cx="615732" cy="525086"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2679,10 +2653,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId8"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2718,7 +2692,7 @@
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="69" name="Rounded Rectangle 68">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
@@ -2957,10 +2931,10 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
           <a:extLst>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId9"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2980,59 +2954,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>2024095</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>501247</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>257774</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>348460</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Graphic 92" descr="Caret Left with solid fill">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-            <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId4"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5212899" y="625486"/>
-          <a:ext cx="909998" cy="504646"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -3126,13 +3047,13 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
             <a:ext uri="{96DAC541-7B7A-43D3-8B79-37D633B846F1}">
-              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId6"/>
+              <asvg:svgBlip xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" r:embed="rId11"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -4372,13 +4293,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>139560</xdr:colOff>
+      <xdr:colOff>91930</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>209340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>572198</xdr:colOff>
+      <xdr:colOff>524568</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>641978</xdr:rowOff>
     </xdr:to>
@@ -4409,7 +4330,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5875494" y="22357582"/>
+          <a:off x="5811693" y="22412115"/>
           <a:ext cx="432638" cy="432638"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5447,13 +5368,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>103909</xdr:colOff>
+      <xdr:colOff>75331</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>207818</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>535909</xdr:colOff>
+      <xdr:colOff>507331</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>639818</xdr:rowOff>
     </xdr:to>
@@ -5484,7 +5405,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12145818" y="7054273"/>
+          <a:off x="12100644" y="7032481"/>
           <a:ext cx="432000" cy="432000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5497,13 +5418,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>173182</xdr:colOff>
+      <xdr:colOff>135078</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>288636</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>533182</xdr:colOff>
+      <xdr:colOff>495078</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>648636</xdr:rowOff>
     </xdr:to>
@@ -5534,7 +5455,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12215091" y="9144000"/>
+          <a:off x="12160391" y="9118311"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5547,15 +5468,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>133347</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>302488</xdr:rowOff>
+      <xdr:rowOff>283436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>609909</xdr:colOff>
+      <xdr:colOff>590857</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>736906</xdr:rowOff>
+      <xdr:rowOff>717854</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5570,7 +5491,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10096499" y="7147788"/>
+          <a:off x="10063160" y="7108099"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -5652,15 +5573,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>180921</xdr:colOff>
+      <xdr:colOff>90433</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>281023</xdr:rowOff>
+      <xdr:rowOff>252409</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>681491</xdr:colOff>
+      <xdr:colOff>573190</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>681491</xdr:rowOff>
+      <xdr:rowOff>638626</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -5675,8 +5596,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="3013021" y="3875123"/>
-          <a:ext cx="500570" cy="400468"/>
+          <a:off x="2919358" y="3829047"/>
+          <a:ext cx="482757" cy="386217"/>
           <a:chOff x="3021103" y="3871659"/>
           <a:chExt cx="500570" cy="400468"/>
         </a:xfrm>
@@ -5757,13 +5678,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>150090</xdr:colOff>
+      <xdr:colOff>88171</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>265545</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>644543</xdr:colOff>
+      <xdr:colOff>582624</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>690727</xdr:rowOff>
     </xdr:to>
@@ -5780,7 +5701,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7985990" y="7110845"/>
+          <a:off x="7912959" y="7090208"/>
           <a:ext cx="494453" cy="425182"/>
           <a:chOff x="7977908" y="7112000"/>
           <a:chExt cx="494453" cy="425182"/>
@@ -5885,7 +5806,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="5843156" y="7110842"/>
+          <a:off x="5835219" y="7090205"/>
           <a:ext cx="450578" cy="450585"/>
           <a:chOff x="5842001" y="7111997"/>
           <a:chExt cx="450578" cy="450585"/>
@@ -6040,7 +5961,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7965208" y="9073572"/>
+          <a:off x="7954096" y="9051347"/>
           <a:ext cx="483226" cy="409089"/>
           <a:chOff x="7963203" y="9178514"/>
           <a:chExt cx="483226" cy="409089"/>
@@ -6624,15 +6545,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>157746</xdr:colOff>
+      <xdr:colOff>129168</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>227624</xdr:rowOff>
+      <xdr:rowOff>203809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>615256</xdr:colOff>
+      <xdr:colOff>586678</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>662042</xdr:rowOff>
+      <xdr:rowOff>638227</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6647,7 +6568,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10101846" y="9079524"/>
+          <a:off x="10058981" y="9033484"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -6729,13 +6650,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>200525</xdr:colOff>
+      <xdr:colOff>133846</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>240629</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>560525</xdr:colOff>
+      <xdr:colOff>493846</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>600629</xdr:rowOff>
     </xdr:to>
@@ -6766,7 +6687,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5935578" y="10841787"/>
+          <a:off x="5853609" y="10694317"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6779,13 +6700,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>160421</xdr:colOff>
+      <xdr:colOff>127080</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>200526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>592421</xdr:colOff>
+      <xdr:colOff>559080</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>632526</xdr:rowOff>
     </xdr:to>
@@ -6816,7 +6737,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7994316" y="10801684"/>
+          <a:off x="7951868" y="10654214"/>
           <a:ext cx="432000" cy="432000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6829,13 +6750,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>187158</xdr:colOff>
+      <xdr:colOff>144291</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>547158</xdr:colOff>
+      <xdr:colOff>504291</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>614000</xdr:rowOff>
     </xdr:to>
@@ -6866,7 +6787,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10119895" y="10855158"/>
+          <a:off x="10074104" y="10707688"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6879,13 +6800,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>160420</xdr:colOff>
+      <xdr:colOff>112790</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>253998</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>520420</xdr:colOff>
+      <xdr:colOff>472790</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>613998</xdr:rowOff>
     </xdr:to>
@@ -6916,7 +6837,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12191999" y="10855156"/>
+          <a:off x="12138103" y="10707686"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -6929,15 +6850,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>120314</xdr:colOff>
+      <xdr:colOff>77448</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>280735</xdr:rowOff>
+      <xdr:rowOff>256921</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>555367</xdr:colOff>
+      <xdr:colOff>512501</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>769262</xdr:rowOff>
+      <xdr:rowOff>745448</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -6952,7 +6873,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="18408314" y="9132635"/>
+          <a:off x="18355923" y="9086596"/>
           <a:ext cx="435053" cy="488527"/>
           <a:chOff x="18381577" y="9237577"/>
           <a:chExt cx="435053" cy="488527"/>
@@ -7034,15 +6955,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>160419</xdr:colOff>
+      <xdr:colOff>117553</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>280737</xdr:rowOff>
+      <xdr:rowOff>256923</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>640924</xdr:colOff>
+      <xdr:colOff>598058</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>787977</xdr:rowOff>
+      <xdr:rowOff>764163</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -7057,7 +6978,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16492619" y="9132637"/>
+          <a:off x="16438641" y="9086598"/>
           <a:ext cx="480505" cy="507240"/>
           <a:chOff x="16456525" y="9250947"/>
           <a:chExt cx="480505" cy="507240"/>
@@ -7139,13 +7060,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>147053</xdr:colOff>
+      <xdr:colOff>113712</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>240632</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>604563</xdr:colOff>
+      <xdr:colOff>571222</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>675050</xdr:rowOff>
     </xdr:to>
@@ -7162,7 +7083,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16479253" y="10718132"/>
+          <a:off x="16434800" y="10694320"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -7294,13 +7215,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>227262</xdr:colOff>
+      <xdr:colOff>160580</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>200527</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>587262</xdr:colOff>
+      <xdr:colOff>520580</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>560527</xdr:rowOff>
     </xdr:to>
@@ -7331,7 +7252,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3074736" y="10801685"/>
+          <a:off x="2989505" y="10654215"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7517,7 +7438,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="10104521" y="13969331"/>
+          <a:off x="10090234" y="13942344"/>
           <a:ext cx="457510" cy="434418"/>
           <a:chOff x="10093035" y="7102763"/>
           <a:chExt cx="457510" cy="434418"/>
@@ -7749,13 +7670,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>120316</xdr:colOff>
+      <xdr:colOff>86975</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>286933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>627411</xdr:colOff>
+      <xdr:colOff>594070</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>588210</xdr:rowOff>
     </xdr:to>
@@ -7774,7 +7695,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7956216" y="15641233"/>
+          <a:off x="7911763" y="15612658"/>
           <a:ext cx="507095" cy="301277"/>
           <a:chOff x="5586385" y="2820460"/>
           <a:chExt cx="426564" cy="232916"/>
@@ -9217,13 +9138,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>120315</xdr:colOff>
+      <xdr:colOff>86974</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>586917</xdr:colOff>
+      <xdr:colOff>553576</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>614000</xdr:rowOff>
     </xdr:to>
@@ -9242,7 +9163,7 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5855368" y="15788105"/>
+          <a:off x="5806737" y="15579725"/>
           <a:ext cx="466602" cy="360000"/>
         </a:xfrm>
         <a:custGeom>
@@ -9533,13 +9454,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>187156</xdr:colOff>
+      <xdr:colOff>125237</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>240631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>583156</xdr:colOff>
+      <xdr:colOff>521237</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>636631</xdr:rowOff>
     </xdr:to>
@@ -9576,7 +9497,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10119893" y="15774736"/>
+          <a:off x="10055050" y="15566356"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9589,13 +9510,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>173786</xdr:colOff>
+      <xdr:colOff>130919</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>240631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>569786</xdr:colOff>
+      <xdr:colOff>526919</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>636631</xdr:rowOff>
     </xdr:to>
@@ -9626,7 +9547,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12205365" y="15774736"/>
+          <a:off x="12156232" y="15566356"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9639,13 +9560,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>66841</xdr:colOff>
+      <xdr:colOff>47789</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>213895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>559474</xdr:colOff>
+      <xdr:colOff>540422</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>666421</xdr:rowOff>
     </xdr:to>
@@ -9662,7 +9583,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16399041" y="15568195"/>
+          <a:off x="16368877" y="15539620"/>
           <a:ext cx="492633" cy="452526"/>
           <a:chOff x="16376315" y="15748000"/>
           <a:chExt cx="492633" cy="452526"/>
@@ -9744,13 +9665,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>147052</xdr:colOff>
+      <xdr:colOff>80370</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>213893</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>604252</xdr:colOff>
+      <xdr:colOff>537570</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>671093</xdr:rowOff>
     </xdr:to>
@@ -9781,7 +9702,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7980947" y="17392314"/>
+          <a:off x="7905158" y="17163631"/>
           <a:ext cx="457200" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9794,13 +9715,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>173789</xdr:colOff>
+      <xdr:colOff>116633</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>227263</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>569789</xdr:colOff>
+      <xdr:colOff>512633</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>623263</xdr:rowOff>
     </xdr:to>
@@ -9831,7 +9752,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5908842" y="17405684"/>
+          <a:off x="5836396" y="17177001"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9844,13 +9765,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>133684</xdr:colOff>
+      <xdr:colOff>90817</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>240633</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>529684</xdr:colOff>
+      <xdr:colOff>486817</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>636633</xdr:rowOff>
     </xdr:to>
@@ -9881,7 +9802,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12165263" y="19063370"/>
+          <a:off x="12116130" y="18814383"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9894,15 +9815,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>187157</xdr:colOff>
+      <xdr:colOff>139527</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>254001</xdr:rowOff>
+      <xdr:rowOff>239712</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>547157</xdr:colOff>
+      <xdr:colOff>499527</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>613294</xdr:rowOff>
+      <xdr:rowOff>599005</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -9931,7 +9852,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5922210" y="19076738"/>
+          <a:off x="5859290" y="18813462"/>
           <a:ext cx="360000" cy="359293"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -9944,15 +9865,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>213894</xdr:colOff>
+      <xdr:colOff>99590</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>253997</xdr:rowOff>
+      <xdr:rowOff>211130</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>694399</xdr:colOff>
+      <xdr:colOff>580095</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>761237</xdr:rowOff>
+      <xdr:rowOff>718370</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -9967,7 +9888,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8049794" y="18859497"/>
+          <a:off x="7924378" y="18784880"/>
           <a:ext cx="480505" cy="507240"/>
           <a:chOff x="16456525" y="9250947"/>
           <a:chExt cx="480505" cy="507240"/>
@@ -10049,15 +9970,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>213893</xdr:colOff>
+      <xdr:colOff>113875</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>280736</xdr:rowOff>
+      <xdr:rowOff>271210</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>573893</xdr:colOff>
+      <xdr:colOff>473875</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>640736</xdr:rowOff>
+      <xdr:rowOff>631210</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10086,7 +10007,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10146630" y="19103473"/>
+          <a:off x="10043688" y="18844960"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10099,13 +10020,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>160421</xdr:colOff>
+      <xdr:colOff>122318</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>213895</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>595474</xdr:colOff>
+      <xdr:colOff>557371</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>702422</xdr:rowOff>
     </xdr:to>
@@ -10122,7 +10043,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16492621" y="18819395"/>
+          <a:off x="16443406" y="18787645"/>
           <a:ext cx="435053" cy="488527"/>
           <a:chOff x="18381577" y="9237577"/>
           <a:chExt cx="435053" cy="488527"/>
@@ -10204,15 +10125,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>139700</xdr:colOff>
+      <xdr:colOff>111122</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>279400</xdr:rowOff>
+      <xdr:rowOff>274637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>499700</xdr:colOff>
+      <xdr:colOff>471122</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>639400</xdr:rowOff>
+      <xdr:rowOff>634637</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -10241,7 +10162,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10083800" y="20891500"/>
+          <a:off x="10040935" y="20853400"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10304,15 +10225,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
+      <xdr:colOff>44446</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>228600</xdr:rowOff>
+      <xdr:rowOff>204786</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>588182</xdr:colOff>
+      <xdr:colOff>531028</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>668998</xdr:rowOff>
+      <xdr:rowOff>645184</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10327,7 +10248,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="7937500" y="20840700"/>
+          <a:off x="7869234" y="20783549"/>
           <a:ext cx="486582" cy="440398"/>
           <a:chOff x="14743545" y="39681728"/>
           <a:chExt cx="486582" cy="440398"/>
@@ -10409,13 +10330,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>95248</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>534391</xdr:colOff>
+      <xdr:colOff>515339</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>737592</xdr:rowOff>
     </xdr:to>
@@ -10432,7 +10353,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12153900" y="20802600"/>
+          <a:off x="12120561" y="20769263"/>
           <a:ext cx="420091" cy="547092"/>
           <a:chOff x="7793181" y="39635545"/>
           <a:chExt cx="420091" cy="547092"/>
@@ -10514,13 +10435,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>128585</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>534000</xdr:colOff>
+      <xdr:colOff>510185</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>614400</xdr:rowOff>
     </xdr:to>
@@ -10551,7 +10472,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7988300" y="22491700"/>
+          <a:off x="7953373" y="22456775"/>
           <a:ext cx="381600" cy="360400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10614,13 +10535,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
+      <xdr:colOff>104772</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>586500</xdr:colOff>
+      <xdr:colOff>500772</xdr:colOff>
       <xdr:row>57</xdr:row>
       <xdr:rowOff>637300</xdr:rowOff>
     </xdr:to>
@@ -10651,7 +10572,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5918200" y="27736800"/>
+          <a:off x="5824535" y="27697113"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10664,13 +10585,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
+      <xdr:colOff>141283</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>563200</xdr:colOff>
+      <xdr:colOff>501283</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>626700</xdr:rowOff>
     </xdr:to>
@@ -10701,7 +10622,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8039100" y="26136600"/>
+          <a:off x="7966071" y="26098500"/>
           <a:ext cx="360000" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10714,13 +10635,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
+      <xdr:colOff>107948</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>523000</xdr:colOff>
+      <xdr:colOff>503948</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>637300</xdr:rowOff>
     </xdr:to>
@@ -10751,7 +10672,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7962900" y="24485600"/>
+          <a:off x="7932736" y="24449088"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10764,13 +10685,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>126996</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>561100</xdr:colOff>
+      <xdr:colOff>522996</xdr:colOff>
       <xdr:row>54</xdr:row>
       <xdr:rowOff>637300</xdr:rowOff>
     </xdr:to>
@@ -10801,7 +10722,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5892800" y="26111200"/>
+          <a:off x="5846759" y="26073100"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10914,13 +10835,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>149222</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>573800</xdr:colOff>
+      <xdr:colOff>545222</xdr:colOff>
       <xdr:row>51</xdr:row>
       <xdr:rowOff>650000</xdr:rowOff>
     </xdr:to>
@@ -10951,7 +10872,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="24498300"/>
+          <a:off x="5868985" y="24461788"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11014,13 +10935,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>125407</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>228600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>573800</xdr:colOff>
+      <xdr:colOff>521407</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>624600</xdr:rowOff>
     </xdr:to>
@@ -11051,7 +10972,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5905500" y="29349700"/>
+          <a:off x="5845170" y="29308425"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11064,13 +10985,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:colOff>61907</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>241300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>598300</xdr:colOff>
+      <xdr:colOff>545907</xdr:colOff>
       <xdr:row>60</xdr:row>
       <xdr:rowOff>637300</xdr:rowOff>
     </xdr:to>
@@ -11101,7 +11022,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7950200" y="29362400"/>
+          <a:off x="7886695" y="29321125"/>
           <a:ext cx="484000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11114,13 +11035,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>117470</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>266700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>561100</xdr:colOff>
+      <xdr:colOff>513470</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>662700</xdr:rowOff>
     </xdr:to>
@@ -11151,7 +11072,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5892800" y="31013400"/>
+          <a:off x="5837233" y="30970538"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11164,13 +11085,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
+      <xdr:colOff>104770</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>203200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>548400</xdr:colOff>
+      <xdr:colOff>500770</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>599200</xdr:rowOff>
     </xdr:to>
@@ -11201,7 +11122,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5880100" y="32575500"/>
+          <a:off x="5824533" y="32531050"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11214,13 +11135,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>131759</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>254000</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>561100</xdr:colOff>
+      <xdr:colOff>527759</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>650000</xdr:rowOff>
     </xdr:to>
@@ -11251,7 +11172,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2997200" y="32626300"/>
+          <a:off x="2960684" y="32581850"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11414,13 +11335,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>117470</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>561100</xdr:colOff>
+      <xdr:colOff>513470</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>611900</xdr:rowOff>
     </xdr:to>
@@ -11451,7 +11372,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8001000" y="32588200"/>
+          <a:off x="7942258" y="32543750"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11464,13 +11385,13 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>165100</xdr:colOff>
+      <xdr:colOff>117470</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>215900</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
-      <xdr:colOff>561100</xdr:colOff>
+      <xdr:colOff>513470</xdr:colOff>
       <xdr:row>66</xdr:row>
       <xdr:rowOff>611900</xdr:rowOff>
     </xdr:to>
@@ -11501,7 +11422,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10109200" y="32588200"/>
+          <a:off x="10047283" y="32543750"/>
           <a:ext cx="396000" cy="396000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -11837,43 +11758,43 @@
   <dimension ref="A1:AK149"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P73" sqref="P73"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.8125" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.7"/>
   <cols>
-    <col min="1" max="1" width="4.33203125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="3.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="0.33203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.33203125" style="1" customWidth="1"/>
-    <col min="8" max="9" width="2.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="0.1640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.83203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="25.33203125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="2.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="25.83203125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="1.83203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="25.83203125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="1.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="24.1640625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="2.1640625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="25.33203125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="2.1640625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="0.1640625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="2.33203125" style="1" customWidth="1"/>
-    <col min="24" max="24" width="23.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.3125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="10.8125" style="1"/>
+    <col min="4" max="4" width="3.6875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="0.3125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.3125" style="1" customWidth="1"/>
+    <col min="8" max="9" width="2.3125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="0.1875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="6.8125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="25.3125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="2.3125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="25.8125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="1.8125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="25.8125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="1.6875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="24.1875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="2.1875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="25.3125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="2.1875" style="1" customWidth="1"/>
+    <col min="22" max="22" width="0.1875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="2.3125" style="1" customWidth="1"/>
+    <col min="24" max="24" width="23.6875" style="1" customWidth="1"/>
     <col min="25" max="25" width="2" style="1" customWidth="1"/>
-    <col min="26" max="26" width="23.83203125" style="1" customWidth="1"/>
-    <col min="27" max="28" width="10.83203125" style="1"/>
+    <col min="26" max="26" width="23.8125" style="1" customWidth="1"/>
+    <col min="27" max="28" width="10.8125" style="1"/>
     <col min="29" max="29" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="30" max="37" width="25.83203125" style="1" hidden="1" customWidth="1"/>
-    <col min="38" max="16384" width="10.83203125" style="1"/>
+    <col min="30" max="37" width="25.8125" style="1" hidden="1" customWidth="1"/>
+    <col min="38" max="16384" width="10.8125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" ht="10" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" ht="10.050000000000001" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="23"/>
       <c r="B1" s="23"/>
       <c r="C1" s="23"/>
@@ -11910,7 +11831,7 @@
       <c r="AJ1" s="13"/>
       <c r="AK1" s="13"/>
     </row>
-    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" ht="41" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A2" s="23"/>
       <c r="B2" s="24"/>
       <c r="C2" s="24"/>
@@ -11972,7 +11893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" ht="11" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A3" s="23"/>
       <c r="B3" s="23"/>
       <c r="C3" s="23"/>
@@ -12001,7 +11922,7 @@
       <c r="Z3" s="23"/>
       <c r="AA3" s="23"/>
     </row>
-    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="1.2">
       <c r="A4" s="23"/>
       <c r="B4" s="23"/>
       <c r="C4" s="23"/>
@@ -12030,7 +11951,7 @@
       <c r="Z4" s="40"/>
       <c r="AA4" s="23"/>
     </row>
-    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" ht="5" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A5" s="23"/>
       <c r="B5" s="23"/>
       <c r="C5" s="23"/>
@@ -12059,7 +11980,7 @@
       <c r="Z5" s="30"/>
       <c r="AA5" s="23"/>
     </row>
-    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" ht="14" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A6" s="23"/>
       <c r="B6" s="23"/>
       <c r="C6" s="23"/>
@@ -12088,7 +12009,7 @@
       <c r="Z6" s="32"/>
       <c r="AA6" s="32"/>
     </row>
-    <row r="7" spans="1:37" ht="4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" ht="4.05" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -12117,7 +12038,7 @@
       <c r="Z7" s="8"/>
       <c r="AA7" s="8"/>
     </row>
-    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -12126,7 +12047,7 @@
       <c r="J8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:37" ht="10" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:37" ht="10.050000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
@@ -12135,7 +12056,7 @@
       <c r="J9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -12155,7 +12076,7 @@
         <v>19</v>
       </c>
       <c r="Q10" s="9"/>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="43" t="s">
         <v>21</v>
       </c>
       <c r="S10" s="9"/>
@@ -12166,7 +12087,7 @@
       <c r="Y10"/>
       <c r="Z10"/>
     </row>
-    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -12197,7 +12118,7 @@
       <c r="Y11"/>
       <c r="Z11"/>
     </row>
-    <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -12206,20 +12127,20 @@
       <c r="J12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="7" t="s">
+      <c r="G13" s="41" t="s">
         <v>13</v>
       </c>
       <c r="J13" s="2"/>
       <c r="L13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="34" t="s">
+      <c r="N13" s="43" t="s">
         <v>87</v>
       </c>
       <c r="P13" s="34" t="s">
@@ -12232,7 +12153,7 @@
       <c r="U13" s="10"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -12258,7 +12179,7 @@
       <c r="U14" s="6"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:37" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -12267,7 +12188,7 @@
       <c r="J15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -12294,7 +12215,7 @@
       </c>
       <c r="V16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -12321,7 +12242,7 @@
       </c>
       <c r="V17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -12330,7 +12251,7 @@
       <c r="J18" s="2"/>
       <c r="V18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -12349,13 +12270,13 @@
       <c r="P19" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="7" t="s">
+      <c r="R19" s="41" t="s">
         <v>30</v>
       </c>
       <c r="T19"/>
       <c r="V19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -12379,7 +12300,7 @@
       </c>
       <c r="V20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -12398,7 +12319,7 @@
       <c r="T21"/>
       <c r="V21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -12407,7 +12328,7 @@
       <c r="J22" s="2"/>
       <c r="V22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -12433,11 +12354,11 @@
       <c r="X23" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="Z23" s="34" t="s">
+      <c r="Z23" s="43" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -12467,7 +12388,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -12476,23 +12397,23 @@
       <c r="J25" s="2"/>
       <c r="V25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="2"/>
-      <c r="G26" s="7" t="s">
+      <c r="G26" s="41" t="s">
         <v>32</v>
       </c>
       <c r="J26" s="2"/>
-      <c r="L26" s="7" t="s">
+      <c r="L26" s="41" t="s">
         <v>88</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="P26" s="41" t="s">
         <v>39</v>
       </c>
       <c r="Q26" s="10"/>
@@ -12507,7 +12428,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -12538,7 +12459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -12547,7 +12468,7 @@
       <c r="J28" s="2"/>
       <c r="V28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -12555,24 +12476,24 @@
       <c r="E29" s="2"/>
       <c r="G29"/>
       <c r="J29" s="2"/>
-      <c r="L29" s="7" t="s">
+      <c r="L29" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" s="42" t="s">
         <v>44</v>
       </c>
       <c r="P29" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="R29" s="7" t="s">
+      <c r="R29" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="T29" s="5" t="s">
+      <c r="T29" s="42" t="s">
         <v>47</v>
       </c>
       <c r="V29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -12597,7 +12518,7 @@
       </c>
       <c r="V30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -12606,7 +12527,7 @@
       <c r="J31" s="2"/>
       <c r="V31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -12627,7 +12548,7 @@
       <c r="T32"/>
       <c r="V32" s="2"/>
     </row>
-    <row r="33" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -12648,7 +12569,7 @@
       <c r="T33"/>
       <c r="V33" s="2"/>
     </row>
-    <row r="34" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -12657,7 +12578,7 @@
       <c r="J34" s="2"/>
       <c r="V34" s="2"/>
     </row>
-    <row r="35" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -12682,7 +12603,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -12707,7 +12628,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -12716,7 +12637,7 @@
       <c r="J37" s="2"/>
       <c r="V37" s="2"/>
     </row>
-    <row r="38" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -12727,13 +12648,13 @@
       <c r="L38" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="N38" s="7" t="s">
+      <c r="N38" s="41" t="s">
         <v>56</v>
       </c>
       <c r="U38" s="10"/>
       <c r="V38" s="2"/>
     </row>
-    <row r="39" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -12751,7 +12672,7 @@
       <c r="U39" s="6"/>
       <c r="V39" s="2"/>
     </row>
-    <row r="40" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
       <c r="C40" s="4"/>
@@ -12761,7 +12682,7 @@
       <c r="J40" s="2"/>
       <c r="V40" s="2"/>
     </row>
-    <row r="41" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -12786,7 +12707,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="42" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -12811,7 +12732,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="43" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:24" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -12820,7 +12741,7 @@
       <c r="J43" s="2"/>
       <c r="V43" s="2"/>
     </row>
-    <row r="44" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -12829,7 +12750,7 @@
       <c r="J44" s="2"/>
       <c r="V44" s="2"/>
     </row>
-    <row r="45" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -12854,7 +12775,7 @@
       </c>
       <c r="V45" s="2"/>
     </row>
-    <row r="46" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -12879,7 +12800,7 @@
       </c>
       <c r="V46" s="2"/>
     </row>
-    <row r="47" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:24" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -12890,7 +12811,7 @@
       <c r="J47" s="2"/>
       <c r="V47" s="2"/>
     </row>
-    <row r="48" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:24" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -12908,7 +12829,7 @@
       <c r="R48"/>
       <c r="V48" s="2"/>
     </row>
-    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -12925,7 +12846,7 @@
       <c r="R49"/>
       <c r="V49" s="2"/>
     </row>
-    <row r="50" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:22" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -12934,7 +12855,7 @@
       <c r="J50" s="2"/>
       <c r="V50" s="2"/>
     </row>
-    <row r="51" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -12943,7 +12864,7 @@
       <c r="J51" s="2"/>
       <c r="V51" s="2"/>
     </row>
-    <row r="52" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A52" s="4"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -12963,7 +12884,7 @@
       <c r="R52"/>
       <c r="V52" s="2"/>
     </row>
-    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A53" s="4"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -12983,7 +12904,7 @@
       <c r="R53"/>
       <c r="V53" s="2"/>
     </row>
-    <row r="54" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A54" s="4"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -12992,7 +12913,7 @@
       <c r="J54" s="2"/>
       <c r="V54" s="2"/>
     </row>
-    <row r="55" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A55" s="4"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -13013,7 +12934,7 @@
       <c r="R55"/>
       <c r="V55" s="2"/>
     </row>
-    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A56" s="4"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -13034,7 +12955,7 @@
       <c r="R56"/>
       <c r="V56" s="2"/>
     </row>
-    <row r="57" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A57" s="4"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -13043,7 +12964,7 @@
       <c r="J57" s="2"/>
       <c r="V57" s="2"/>
     </row>
-    <row r="58" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A58" s="4"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -13062,7 +12983,7 @@
       <c r="U58" s="10"/>
       <c r="V58" s="2"/>
     </row>
-    <row r="59" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A59" s="4"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -13081,7 +13002,7 @@
       <c r="U59" s="6"/>
       <c r="V59" s="2"/>
     </row>
-    <row r="60" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A60" s="4"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -13090,7 +13011,7 @@
       <c r="J60" s="2"/>
       <c r="V60" s="2"/>
     </row>
-    <row r="61" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A61" s="4"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -13103,7 +13024,7 @@
       <c r="L61" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="N61" s="7" t="s">
+      <c r="N61" s="41" t="s">
         <v>78</v>
       </c>
       <c r="P61"/>
@@ -13111,7 +13032,7 @@
       <c r="R61"/>
       <c r="V61" s="2"/>
     </row>
-    <row r="62" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A62" s="4"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -13132,7 +13053,7 @@
       <c r="R62"/>
       <c r="V62" s="2"/>
     </row>
-    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:22" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A63" s="4"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -13141,7 +13062,7 @@
       <c r="J63" s="2"/>
       <c r="V63" s="2"/>
     </row>
-    <row r="64" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:22" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A64" s="4"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -13159,7 +13080,7 @@
       <c r="R64"/>
       <c r="V64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A65" s="4"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -13177,7 +13098,7 @@
       <c r="R65"/>
       <c r="V65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A66" s="4"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -13188,7 +13109,7 @@
       <c r="J66" s="2"/>
       <c r="V66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A67" s="4"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -13205,13 +13126,13 @@
       <c r="N67" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="P67" s="7" t="s">
+      <c r="P67" s="41" t="s">
         <v>86</v>
       </c>
       <c r="R67"/>
       <c r="V67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A68" s="4"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -13233,7 +13154,7 @@
       <c r="R68"/>
       <c r="V68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A69" s="4"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -13242,7 +13163,7 @@
       <c r="J69" s="2"/>
       <c r="V69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A70" s="4"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -13261,7 +13182,7 @@
       <c r="R70"/>
       <c r="V70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:26" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A71" s="4"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -13280,7 +13201,7 @@
       <c r="R71"/>
       <c r="V71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A72" s="4"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -13289,7 +13210,7 @@
       <c r="J72" s="2"/>
       <c r="V72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A73"/>
       <c r="B73"/>
       <c r="C73"/>
@@ -13317,7 +13238,7 @@
       <c r="Y73"/>
       <c r="Z73"/>
     </row>
-    <row r="74" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A74"/>
       <c r="B74"/>
       <c r="C74"/>
@@ -13345,7 +13266,7 @@
       <c r="Y74"/>
       <c r="Z74"/>
     </row>
-    <row r="75" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A75"/>
       <c r="B75"/>
       <c r="C75"/>
@@ -13373,7 +13294,7 @@
       <c r="Y75"/>
       <c r="Z75"/>
     </row>
-    <row r="76" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A76"/>
       <c r="B76"/>
       <c r="C76"/>
@@ -13401,7 +13322,7 @@
       <c r="Y76"/>
       <c r="Z76"/>
     </row>
-    <row r="77" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A77"/>
       <c r="B77"/>
       <c r="C77"/>
@@ -13429,7 +13350,7 @@
       <c r="Y77"/>
       <c r="Z77"/>
     </row>
-    <row r="78" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A78"/>
       <c r="B78"/>
       <c r="C78"/>
@@ -13457,7 +13378,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A79"/>
       <c r="B79"/>
       <c r="C79"/>
@@ -13485,7 +13406,7 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A80"/>
       <c r="B80"/>
       <c r="C80"/>
@@ -13513,7 +13434,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A81"/>
       <c r="B81"/>
       <c r="C81"/>
@@ -13541,7 +13462,7 @@
       <c r="Y81"/>
       <c r="Z81"/>
     </row>
-    <row r="82" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A82"/>
       <c r="B82"/>
       <c r="C82"/>
@@ -13569,7 +13490,7 @@
       <c r="Y82"/>
       <c r="Z82"/>
     </row>
-    <row r="83" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A83"/>
       <c r="B83"/>
       <c r="C83"/>
@@ -13597,7 +13518,7 @@
       <c r="Y83"/>
       <c r="Z83"/>
     </row>
-    <row r="84" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A84"/>
       <c r="B84"/>
       <c r="C84"/>
@@ -13625,7 +13546,7 @@
       <c r="Y84"/>
       <c r="Z84"/>
     </row>
-    <row r="85" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A85"/>
       <c r="B85"/>
       <c r="C85"/>
@@ -13653,7 +13574,7 @@
       <c r="Y85"/>
       <c r="Z85"/>
     </row>
-    <row r="86" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A86"/>
       <c r="B86"/>
       <c r="C86"/>
@@ -13681,7 +13602,7 @@
       <c r="Y86"/>
       <c r="Z86"/>
     </row>
-    <row r="87" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A87"/>
       <c r="B87"/>
       <c r="C87"/>
@@ -13709,7 +13630,7 @@
       <c r="Y87"/>
       <c r="Z87"/>
     </row>
-    <row r="88" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A88"/>
       <c r="B88"/>
       <c r="C88"/>
@@ -13737,7 +13658,7 @@
       <c r="Y88"/>
       <c r="Z88"/>
     </row>
-    <row r="89" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A89"/>
       <c r="B89"/>
       <c r="C89"/>
@@ -13765,7 +13686,7 @@
       <c r="Y89"/>
       <c r="Z89"/>
     </row>
-    <row r="90" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A90"/>
       <c r="B90"/>
       <c r="C90"/>
@@ -13793,7 +13714,7 @@
       <c r="Y90"/>
       <c r="Z90"/>
     </row>
-    <row r="91" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A91"/>
       <c r="B91"/>
       <c r="C91"/>
@@ -13821,7 +13742,7 @@
       <c r="Y91"/>
       <c r="Z91"/>
     </row>
-    <row r="92" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A92"/>
       <c r="B92"/>
       <c r="C92"/>
@@ -13849,7 +13770,7 @@
       <c r="Y92"/>
       <c r="Z92"/>
     </row>
-    <row r="93" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A93"/>
       <c r="B93"/>
       <c r="C93"/>
@@ -13877,7 +13798,7 @@
       <c r="Y93"/>
       <c r="Z93"/>
     </row>
-    <row r="94" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A94"/>
       <c r="B94"/>
       <c r="C94"/>
@@ -13905,7 +13826,7 @@
       <c r="Y94"/>
       <c r="Z94"/>
     </row>
-    <row r="95" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A95"/>
       <c r="B95"/>
       <c r="C95"/>
@@ -13933,7 +13854,7 @@
       <c r="Y95"/>
       <c r="Z95"/>
     </row>
-    <row r="96" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A96"/>
       <c r="B96"/>
       <c r="C96"/>
@@ -13961,7 +13882,7 @@
       <c r="Y96"/>
       <c r="Z96"/>
     </row>
-    <row r="97" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A97"/>
       <c r="B97"/>
       <c r="C97"/>
@@ -13989,7 +13910,7 @@
       <c r="Y97"/>
       <c r="Z97"/>
     </row>
-    <row r="98" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A98"/>
       <c r="B98"/>
       <c r="C98"/>
@@ -14017,7 +13938,7 @@
       <c r="Y98"/>
       <c r="Z98"/>
     </row>
-    <row r="99" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A99"/>
       <c r="B99"/>
       <c r="C99"/>
@@ -14045,7 +13966,7 @@
       <c r="Y99"/>
       <c r="Z99"/>
     </row>
-    <row r="100" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A100"/>
       <c r="B100"/>
       <c r="C100"/>
@@ -14073,7 +13994,7 @@
       <c r="Y100"/>
       <c r="Z100"/>
     </row>
-    <row r="101" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A101"/>
       <c r="B101"/>
       <c r="C101"/>
@@ -14101,7 +14022,7 @@
       <c r="Y101"/>
       <c r="Z101"/>
     </row>
-    <row r="102" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A102"/>
       <c r="B102"/>
       <c r="C102"/>
@@ -14129,7 +14050,7 @@
       <c r="Y102"/>
       <c r="Z102"/>
     </row>
-    <row r="103" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A103"/>
       <c r="B103"/>
       <c r="C103"/>
@@ -14157,7 +14078,7 @@
       <c r="Y103"/>
       <c r="Z103"/>
     </row>
-    <row r="104" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A104"/>
       <c r="B104"/>
       <c r="C104"/>
@@ -14185,7 +14106,7 @@
       <c r="Y104"/>
       <c r="Z104"/>
     </row>
-    <row r="105" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A105"/>
       <c r="B105"/>
       <c r="C105"/>
@@ -14213,7 +14134,7 @@
       <c r="Y105"/>
       <c r="Z105"/>
     </row>
-    <row r="106" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A106"/>
       <c r="B106"/>
       <c r="C106"/>
@@ -14241,7 +14162,7 @@
       <c r="Y106"/>
       <c r="Z106"/>
     </row>
-    <row r="107" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A107"/>
       <c r="B107"/>
       <c r="C107"/>
@@ -14269,7 +14190,7 @@
       <c r="Y107"/>
       <c r="Z107"/>
     </row>
-    <row r="108" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A108"/>
       <c r="B108"/>
       <c r="C108"/>
@@ -14297,7 +14218,7 @@
       <c r="Y108"/>
       <c r="Z108"/>
     </row>
-    <row r="109" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A109"/>
       <c r="B109"/>
       <c r="C109"/>
@@ -14325,7 +14246,7 @@
       <c r="Y109"/>
       <c r="Z109"/>
     </row>
-    <row r="110" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A110"/>
       <c r="B110"/>
       <c r="C110"/>
@@ -14353,7 +14274,7 @@
       <c r="Y110"/>
       <c r="Z110"/>
     </row>
-    <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A111"/>
       <c r="B111"/>
       <c r="C111"/>
@@ -14381,7 +14302,7 @@
       <c r="Y111"/>
       <c r="Z111"/>
     </row>
-    <row r="112" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A112"/>
       <c r="B112"/>
       <c r="C112"/>
@@ -14409,7 +14330,7 @@
       <c r="Y112"/>
       <c r="Z112"/>
     </row>
-    <row r="113" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A113"/>
       <c r="B113"/>
       <c r="C113"/>
@@ -14440,7 +14361,7 @@
       <c r="AB113"/>
       <c r="AC113"/>
     </row>
-    <row r="114" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A114"/>
       <c r="B114"/>
       <c r="C114"/>
@@ -14471,7 +14392,7 @@
       <c r="AB114"/>
       <c r="AC114"/>
     </row>
-    <row r="115" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A115" s="4"/>
       <c r="B115"/>
       <c r="C115"/>
@@ -14502,7 +14423,7 @@
       <c r="AB115"/>
       <c r="AC115"/>
     </row>
-    <row r="116" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A116" s="4"/>
       <c r="B116"/>
       <c r="C116"/>
@@ -14533,7 +14454,7 @@
       <c r="AB116"/>
       <c r="AC116"/>
     </row>
-    <row r="117" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A117" s="4"/>
       <c r="B117"/>
       <c r="C117"/>
@@ -14564,7 +14485,7 @@
       <c r="AB117"/>
       <c r="AC117"/>
     </row>
-    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A118" s="4"/>
       <c r="B118"/>
       <c r="C118"/>
@@ -14595,7 +14516,7 @@
       <c r="AB118"/>
       <c r="AC118"/>
     </row>
-    <row r="119" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B119"/>
       <c r="C119"/>
       <c r="D119"/>
@@ -14625,7 +14546,7 @@
       <c r="AB119"/>
       <c r="AC119"/>
     </row>
-    <row r="120" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B120"/>
       <c r="C120"/>
       <c r="D120"/>
@@ -14655,7 +14576,7 @@
       <c r="AB120"/>
       <c r="AC120"/>
     </row>
-    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B121"/>
       <c r="C121"/>
       <c r="D121"/>
@@ -14685,7 +14606,7 @@
       <c r="AB121"/>
       <c r="AC121"/>
     </row>
-    <row r="122" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B122"/>
       <c r="C122"/>
       <c r="D122"/>
@@ -14715,7 +14636,7 @@
       <c r="AB122"/>
       <c r="AC122"/>
     </row>
-    <row r="123" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B123"/>
       <c r="C123"/>
       <c r="D123"/>
@@ -14745,7 +14666,7 @@
       <c r="AB123"/>
       <c r="AC123"/>
     </row>
-    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B124"/>
       <c r="C124"/>
       <c r="D124"/>
@@ -14775,7 +14696,7 @@
       <c r="AB124"/>
       <c r="AC124"/>
     </row>
-    <row r="125" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B125"/>
       <c r="C125"/>
       <c r="D125"/>
@@ -14805,7 +14726,7 @@
       <c r="AB125"/>
       <c r="AC125"/>
     </row>
-    <row r="126" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B126"/>
       <c r="C126"/>
       <c r="D126"/>
@@ -14835,7 +14756,7 @@
       <c r="AB126"/>
       <c r="AC126"/>
     </row>
-    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B127"/>
       <c r="C127"/>
       <c r="D127"/>
@@ -14865,7 +14786,7 @@
       <c r="AB127"/>
       <c r="AC127"/>
     </row>
-    <row r="128" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B128"/>
       <c r="C128"/>
       <c r="D128"/>
@@ -14895,7 +14816,7 @@
       <c r="AB128"/>
       <c r="AC128"/>
     </row>
-    <row r="129" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="B129"/>
       <c r="C129"/>
       <c r="D129"/>
@@ -14925,7 +14846,7 @@
       <c r="AB129"/>
       <c r="AC129"/>
     </row>
-    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
@@ -14934,7 +14855,7 @@
       <c r="Q130"/>
       <c r="R130"/>
     </row>
-    <row r="131" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L131"/>
       <c r="M131"/>
       <c r="N131"/>
@@ -14943,7 +14864,7 @@
       <c r="Q131"/>
       <c r="R131"/>
     </row>
-    <row r="132" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L132"/>
       <c r="M132"/>
       <c r="N132"/>
@@ -14952,7 +14873,7 @@
       <c r="Q132"/>
       <c r="R132"/>
     </row>
-    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L133"/>
       <c r="M133"/>
       <c r="N133"/>
@@ -14961,7 +14882,7 @@
       <c r="Q133"/>
       <c r="R133"/>
     </row>
-    <row r="134" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L134"/>
       <c r="M134"/>
       <c r="N134"/>
@@ -14970,7 +14891,7 @@
       <c r="Q134"/>
       <c r="R134"/>
     </row>
-    <row r="135" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L135"/>
       <c r="M135"/>
       <c r="N135"/>
@@ -14979,7 +14900,7 @@
       <c r="Q135"/>
       <c r="R135"/>
     </row>
-    <row r="136" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:29" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L136"/>
       <c r="M136"/>
       <c r="N136"/>
@@ -14988,7 +14909,7 @@
       <c r="Q136"/>
       <c r="R136"/>
     </row>
-    <row r="137" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7">
       <c r="L137"/>
       <c r="M137"/>
       <c r="N137"/>
@@ -14997,10 +14918,10 @@
       <c r="Q137"/>
       <c r="R137"/>
     </row>
-    <row r="140" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="143" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="146" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="149" ht="68" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="140" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="143" spans="2:29" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="146" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
+    <row r="149" ht="68" customHeight="1" x14ac:dyDescent="0.7"/>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="F4:H4"/>
@@ -15008,29 +14929,29 @@
     <mergeCell ref="W4:Z4"/>
   </mergeCells>
   <conditionalFormatting sqref="A23:K24">
-    <cfRule type="cellIs" dxfId="110" priority="96" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="110" priority="95" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="109" priority="90" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="109" priority="94" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="108" priority="91" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="108" priority="93" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="107" priority="92" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="106" priority="93" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="106" priority="91" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="105" priority="94" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="105" priority="90" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="104" priority="95" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="104" priority="89" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="103" priority="89" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="103" priority="96" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A45:O46 A66:AA72 A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 N14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 AA73:AA114 A115:K206 S115:AA206 L123:R214">
@@ -15039,288 +14960,288 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A8:AA9 O10 Q10 A10:K11 M10:M11 S10:W11 AA10:AA11 L11 N11:R11 A12:AA12 Q13:AA13 A13:M14 O13:O14 N14 P14:Q14 S14 U14:AA14 A15:AA15 A16:K17 M16:M17 O16:O17 Q16:Q17 S16:S17 U16:AA17 L17 N17 P17 R17 T17 A18:AA18 M19 O19:Q19 R19:S20 A19:K21 U19:AA21 A22:AA22 O23:O24 Q23:Q24 S23:W24 Y23:Y24 AA23:AA24 A25:AA25 A26:W27 Y26:AA27 A28:AA28 A29:F30 H29:AA30 A31:AA31 A32:Q33 U32:AA33 A34:AA34 A35:F36 H35:AA36 A37:AA37 H38:O39 Q38:AA39 A38:F42 H40:AA42 A43:AA44 A45:O46 A47:AA47 A48:O49 Q48:AA49 A52:O53 Q52:AA53 A54:AA54 A55:O56 S55:AA56 A57:AA57 A58:M59 Q58:AA59 A60:AA60 A61:O62 S61:AA62 A63:AA63 A64:F65 H64:M65 S64:AA65 A66:AA72 AA73:AA114 A115:K206 S115:AA206 L123:R214">
-    <cfRule type="cellIs" dxfId="101" priority="347" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="101" priority="353" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="100" priority="347" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="100" priority="348" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="99" priority="352" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="99" priority="349" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="98" priority="351" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="97" priority="350" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="96" priority="349" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="98" priority="350" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="97" priority="351" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="96" priority="352" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="95" priority="353" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="95" priority="348" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A50:AA51">
-    <cfRule type="cellIs" dxfId="94" priority="1" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="94" priority="2" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="93" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="93" priority="3" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="92" priority="4" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="91" priority="5" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="90" priority="6" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="89" priority="7" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="88" priority="8" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="92" priority="2" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="91" priority="3" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="90" priority="4" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="89" priority="5" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="88" priority="6" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="87" priority="7" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="87" priority="1" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G46 G68">
-    <cfRule type="cellIs" dxfId="86" priority="113" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="86" priority="115" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="85" priority="119" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="85" priority="116" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="84" priority="117" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="83" priority="118" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="82" priority="114" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="81" priority="119" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="118" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="83" priority="117" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="116" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="81" priority="115" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="114" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="80" priority="113" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L24">
     <cfRule type="cellIs" dxfId="79" priority="88" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="82" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="87" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="77" priority="86" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="76" priority="82" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="77" priority="83" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="75" priority="81" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="84" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="74" priority="85" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="73" priority="84" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="75" priority="85" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="86" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="73" priority="87" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="81" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="72" priority="83" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L20:Q20">
-    <cfRule type="cellIs" dxfId="71" priority="97" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="71" priority="99" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="70" priority="103" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="69" priority="104" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="68" priority="97" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="98" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="67" priority="98" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="69" priority="99" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="100" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="67" priority="101" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="66" priority="102" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="65" priority="103" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="65" priority="100" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="104" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
+    <cfRule type="cellIs" dxfId="64" priority="101" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N24">
-    <cfRule type="cellIs" dxfId="63" priority="73" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="77" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="62" priority="75" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="61" priority="74" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="60" priority="73" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="80" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="76" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="58" priority="79" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="57" priority="80" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="61" priority="79" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="78" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="78" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="77" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="76" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="75" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="74" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P24">
-    <cfRule type="cellIs" dxfId="55" priority="72" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="69" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="54" priority="72" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="65" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="71" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="52" priority="70" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="51" priority="65" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="66" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="66" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="67" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="67" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="51" priority="68" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="48" priority="68" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="69" stopIfTrue="1" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P45:P46">
+    <cfRule type="cellIs" dxfId="47" priority="18" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="46" priority="19" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="45" priority="20" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="44" priority="21" stopIfTrue="1" operator="equal">
       <formula>$AH$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="49" priority="70" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="43" priority="22" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="71" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="42" priority="23" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="41" priority="24" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="40" priority="17" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R24">
+    <cfRule type="cellIs" dxfId="39" priority="64" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="38" priority="57" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="58" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="36" priority="59" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="35" priority="60" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="61" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="33" priority="62" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="32" priority="63" stopIfTrue="1" operator="equal">
       <formula>$AJ$2</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P45:P46">
-    <cfRule type="cellIs" dxfId="47" priority="17" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="R45:AA46">
+    <cfRule type="cellIs" dxfId="31" priority="16" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="30" priority="15" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="29" priority="13" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="28" priority="12" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="27" priority="11" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="26" priority="10" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="9" stopIfTrue="1" operator="equal">
       <formula>$AD$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="18" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="45" priority="19" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="20" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="21" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="22" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="14" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="41" priority="23" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="24" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R24">
-    <cfRule type="cellIs" dxfId="39" priority="57" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="64" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="63" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="62" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="35" priority="61" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="60" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="33" priority="59" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="58" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R45:AA46">
-    <cfRule type="cellIs" dxfId="31" priority="9" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="16" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="15" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="14" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="13" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="12" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="11" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="10" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X24">
-    <cfRule type="cellIs" dxfId="23" priority="49" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="23" priority="56" stopIfTrue="1" operator="equal">
+      <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="50" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="55" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="21" priority="54" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="53" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="52" stopIfTrue="1" operator="equal">
+      <formula>$AG$2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="50" stopIfTrue="1" operator="equal">
       <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="21" priority="55" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="54" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="56" stopIfTrue="1" operator="equal">
-      <formula>$AK$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="53" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="52" stopIfTrue="1" operator="equal">
-      <formula>$AG$2</formula>
+    <cfRule type="cellIs" dxfId="17" priority="49" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="16" priority="51" stopIfTrue="1" operator="equal">
       <formula>$AF$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X27">
-    <cfRule type="cellIs" dxfId="15" priority="37" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="15" priority="33" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="14" priority="40" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
@@ -15331,8 +15252,8 @@
     <cfRule type="cellIs" dxfId="12" priority="38" stopIfTrue="1" operator="equal">
       <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="33" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="11" priority="37" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="10" priority="36" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
@@ -15348,26 +15269,26 @@
     <cfRule type="cellIs" dxfId="7" priority="48" stopIfTrue="1" operator="equal">
       <formula>$AK$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="41" stopIfTrue="1" operator="equal">
-      <formula>$AD$2</formula>
+    <cfRule type="cellIs" dxfId="6" priority="47" stopIfTrue="1" operator="equal">
+      <formula>$AJ$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="42" stopIfTrue="1" operator="equal">
-      <formula>$AE$2</formula>
+    <cfRule type="cellIs" dxfId="5" priority="46" stopIfTrue="1" operator="equal">
+      <formula>$AI$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="43" stopIfTrue="1" operator="equal">
-      <formula>$AF$2</formula>
+    <cfRule type="cellIs" dxfId="4" priority="45" stopIfTrue="1" operator="equal">
+      <formula>$AH$2</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="3" priority="44" stopIfTrue="1" operator="equal">
       <formula>$AG$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="46" stopIfTrue="1" operator="equal">
-      <formula>$AI$2</formula>
+    <cfRule type="cellIs" dxfId="2" priority="43" stopIfTrue="1" operator="equal">
+      <formula>$AF$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="47" stopIfTrue="1" operator="equal">
-      <formula>$AJ$2</formula>
+    <cfRule type="cellIs" dxfId="1" priority="42" stopIfTrue="1" operator="equal">
+      <formula>$AE$2</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="45" stopIfTrue="1" operator="equal">
-      <formula>$AH$2</formula>
+    <cfRule type="cellIs" dxfId="0" priority="41" stopIfTrue="1" operator="equal">
+      <formula>$AD$2</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
